--- a/ARMInspectorGUI/frm1.xlsx
+++ b/ARMInspectorGUI/frm1.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24026"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MyProjects_2021\ARMInspector\ARMInspectorGUI\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{703A5284-F527-4B77-AE55-C872262B0914}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15600"/>
   </bookViews>
   <sheets>
     <sheet name="Филиал" sheetId="4" r:id="rId1"/>
@@ -18,12 +12,12 @@
     <sheet name="Барановичи" sheetId="1" r:id="rId3"/>
     <sheet name="Пинск" sheetId="2" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="91">
   <si>
     <t>№ п/п</t>
   </si>
@@ -320,7 +314,102 @@
         <family val="1"/>
         <charset val="204"/>
       </rPr>
+      <t>Брестскому межрайонному отделению</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> за </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>май</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>2021 года</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">по </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
       <t>Пинскому межрайонному отделению</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> за </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>май 2021 года</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">по </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>филиалу Госэнергогазнадзора по Брестской области</t>
     </r>
     <r>
       <rPr>
@@ -359,41 +448,12 @@
   <si>
     <t>Гурина 27 12 07</t>
   </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">по </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t>Брестскому межрайонному отделению</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="23" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -921,6 +981,18 @@
     <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="49" fontId="22" fillId="2" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -933,14 +1005,11 @@
     <xf numFmtId="0" fontId="8" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -956,9 +1025,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -979,12 +1045,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1010,12 +1070,12 @@
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="Обычный 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="Обычный 2 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="Обычный 2 3" xfId="4" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
-    <cellStyle name="Обычный 2 4" xfId="6" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
-    <cellStyle name="Обычный 3" xfId="3" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
-    <cellStyle name="Обычный 4" xfId="5" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="Обычный 2" xfId="1"/>
+    <cellStyle name="Обычный 2 2" xfId="2"/>
+    <cellStyle name="Обычный 2 3" xfId="4"/>
+    <cellStyle name="Обычный 2 4" xfId="6"/>
+    <cellStyle name="Обычный 3" xfId="3"/>
+    <cellStyle name="Обычный 4" xfId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1073,7 +1133,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1105,27 +1165,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1157,24 +1199,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -1350,7 +1374,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
     <pageSetUpPr fitToPage="1"/>
@@ -1358,10 +1382,10 @@
   <dimension ref="A1:AE38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:AE3"/>
+      <selection activeCell="AD26" sqref="AD26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="4.28515625" customWidth="1"/>
     <col min="2" max="2" width="24.140625" customWidth="1"/>
@@ -1391,59 +1415,59 @@
     <col min="31" max="31" width="8.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="79" t="s">
+    <row r="1" spans="1:31" ht="21" customHeight="1">
+      <c r="A1" s="81" t="s">
         <v>75</v>
       </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="79"/>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="79"/>
-      <c r="R1" s="79"/>
-      <c r="S1" s="79"/>
-      <c r="T1" s="79"/>
-      <c r="U1" s="79"/>
-      <c r="V1" s="79"/>
-      <c r="W1" s="79"/>
-      <c r="X1" s="79"/>
-      <c r="Y1" s="79"/>
-      <c r="Z1" s="79"/>
-      <c r="AA1" s="79"/>
-      <c r="AB1" s="79"/>
-      <c r="AC1" s="79"/>
-      <c r="AD1" s="79"/>
-      <c r="AE1" s="79"/>
-    </row>
-    <row r="2" spans="1:31" ht="43.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="82" t="s">
+      <c r="B1" s="81"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="81"/>
+      <c r="H1" s="81"/>
+      <c r="I1" s="81"/>
+      <c r="J1" s="81"/>
+      <c r="K1" s="81"/>
+      <c r="L1" s="81"/>
+      <c r="M1" s="81"/>
+      <c r="N1" s="81"/>
+      <c r="O1" s="81"/>
+      <c r="P1" s="81"/>
+      <c r="Q1" s="81"/>
+      <c r="R1" s="81"/>
+      <c r="S1" s="81"/>
+      <c r="T1" s="81"/>
+      <c r="U1" s="81"/>
+      <c r="V1" s="81"/>
+      <c r="W1" s="81"/>
+      <c r="X1" s="81"/>
+      <c r="Y1" s="81"/>
+      <c r="Z1" s="81"/>
+      <c r="AA1" s="81"/>
+      <c r="AB1" s="81"/>
+      <c r="AC1" s="81"/>
+      <c r="AD1" s="81"/>
+      <c r="AE1" s="81"/>
+    </row>
+    <row r="2" spans="1:31" ht="43.5" hidden="1" customHeight="1">
+      <c r="A2" s="84" t="s">
         <v>73</v>
       </c>
-      <c r="B2" s="83"/>
-      <c r="C2" s="83"/>
-      <c r="D2" s="83"/>
-      <c r="E2" s="83"/>
-      <c r="F2" s="83"/>
-      <c r="G2" s="83"/>
-      <c r="H2" s="83"/>
-      <c r="I2" s="84" t="s">
+      <c r="B2" s="85"/>
+      <c r="C2" s="85"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="85"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="85"/>
+      <c r="H2" s="85"/>
+      <c r="I2" s="86" t="s">
         <v>74</v>
       </c>
-      <c r="J2" s="85"/>
-      <c r="K2" s="85"/>
-      <c r="L2" s="85"/>
-      <c r="M2" s="85"/>
+      <c r="J2" s="87"/>
+      <c r="K2" s="87"/>
+      <c r="L2" s="87"/>
+      <c r="M2" s="87"/>
       <c r="N2" s="27"/>
       <c r="O2" s="27"/>
       <c r="P2" s="27"/>
@@ -1463,40 +1487,42 @@
       <c r="AD2" s="27"/>
       <c r="AE2" s="27"/>
     </row>
-    <row r="3" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="79"/>
-      <c r="B3" s="79"/>
-      <c r="C3" s="79"/>
-      <c r="D3" s="79"/>
-      <c r="E3" s="79"/>
-      <c r="F3" s="79"/>
-      <c r="G3" s="79"/>
-      <c r="H3" s="79"/>
-      <c r="I3" s="79"/>
-      <c r="J3" s="79"/>
-      <c r="K3" s="79"/>
-      <c r="L3" s="79"/>
-      <c r="M3" s="79"/>
-      <c r="N3" s="79"/>
-      <c r="O3" s="79"/>
-      <c r="P3" s="79"/>
-      <c r="Q3" s="79"/>
-      <c r="R3" s="79"/>
-      <c r="S3" s="79"/>
-      <c r="T3" s="79"/>
-      <c r="U3" s="79"/>
-      <c r="V3" s="79"/>
-      <c r="W3" s="79"/>
-      <c r="X3" s="79"/>
-      <c r="Y3" s="79"/>
-      <c r="Z3" s="79"/>
-      <c r="AA3" s="79"/>
-      <c r="AB3" s="79"/>
-      <c r="AC3" s="79"/>
-      <c r="AD3" s="79"/>
-      <c r="AE3" s="79"/>
-    </row>
-    <row r="4" spans="1:31" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:31" ht="18.75" customHeight="1">
+      <c r="A3" s="81" t="s">
+        <v>85</v>
+      </c>
+      <c r="B3" s="81"/>
+      <c r="C3" s="81"/>
+      <c r="D3" s="81"/>
+      <c r="E3" s="81"/>
+      <c r="F3" s="81"/>
+      <c r="G3" s="81"/>
+      <c r="H3" s="81"/>
+      <c r="I3" s="81"/>
+      <c r="J3" s="81"/>
+      <c r="K3" s="81"/>
+      <c r="L3" s="81"/>
+      <c r="M3" s="81"/>
+      <c r="N3" s="81"/>
+      <c r="O3" s="81"/>
+      <c r="P3" s="81"/>
+      <c r="Q3" s="81"/>
+      <c r="R3" s="81"/>
+      <c r="S3" s="81"/>
+      <c r="T3" s="81"/>
+      <c r="U3" s="81"/>
+      <c r="V3" s="81"/>
+      <c r="W3" s="81"/>
+      <c r="X3" s="81"/>
+      <c r="Y3" s="81"/>
+      <c r="Z3" s="81"/>
+      <c r="AA3" s="81"/>
+      <c r="AB3" s="81"/>
+      <c r="AC3" s="81"/>
+      <c r="AD3" s="81"/>
+      <c r="AE3" s="81"/>
+    </row>
+    <row r="4" spans="1:31" ht="11.25" customHeight="1">
       <c r="A4" s="53"/>
       <c r="B4" s="53"/>
       <c r="C4" s="53"/>
@@ -1529,38 +1555,38 @@
       <c r="AD4" s="53"/>
       <c r="AE4" s="53"/>
     </row>
-    <row r="5" spans="1:31" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:31" ht="32.25" customHeight="1">
       <c r="A5" s="51" t="s">
         <v>0</v>
       </c>
       <c r="B5" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="75" t="s">
+      <c r="C5" s="78" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="75"/>
-      <c r="E5" s="75"/>
-      <c r="F5" s="75" t="s">
+      <c r="D5" s="78"/>
+      <c r="E5" s="78"/>
+      <c r="F5" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="G5" s="75"/>
-      <c r="H5" s="75"/>
-      <c r="I5" s="75" t="s">
+      <c r="G5" s="78"/>
+      <c r="H5" s="78"/>
+      <c r="I5" s="78" t="s">
         <v>7</v>
       </c>
-      <c r="J5" s="75"/>
-      <c r="K5" s="75"/>
-      <c r="L5" s="75" t="s">
+      <c r="J5" s="78"/>
+      <c r="K5" s="78"/>
+      <c r="L5" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="M5" s="75"/>
-      <c r="N5" s="75"/>
-      <c r="O5" s="75" t="s">
+      <c r="M5" s="78"/>
+      <c r="N5" s="78"/>
+      <c r="O5" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="P5" s="75"/>
-      <c r="Q5" s="75"/>
+      <c r="P5" s="78"/>
+      <c r="Q5" s="78"/>
       <c r="R5" s="52" t="s">
         <v>10</v>
       </c>
@@ -1570,14 +1596,14 @@
       <c r="T5" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="U5" s="70" t="s">
+      <c r="U5" s="66" t="s">
         <v>13</v>
       </c>
-      <c r="V5" s="70"/>
-      <c r="W5" s="80" t="s">
+      <c r="V5" s="66"/>
+      <c r="W5" s="82" t="s">
         <v>14</v>
       </c>
-      <c r="X5" s="81"/>
+      <c r="X5" s="83"/>
       <c r="Y5" s="52" t="s">
         <v>15</v>
       </c>
@@ -1593,14 +1619,14 @@
       <c r="AC5" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="AD5" s="76" t="s">
+      <c r="AD5" s="79" t="s">
         <v>20</v>
       </c>
-      <c r="AE5" s="86" t="s">
+      <c r="AE5" s="74" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="6" spans="1:31" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:31" ht="30.75" customHeight="1">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="51" t="s">
@@ -1684,10 +1710,10 @@
       <c r="AC6" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="AD6" s="77"/>
-      <c r="AE6" s="87"/>
-    </row>
-    <row r="7" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD6" s="80"/>
+      <c r="AE6" s="75"/>
+    </row>
+    <row r="7" spans="1:31" ht="12.75" customHeight="1">
       <c r="A7" s="2">
         <v>1</v>
       </c>
@@ -1782,44 +1808,44 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:31" ht="16.5" customHeight="1">
       <c r="A8" s="38" t="s">
         <v>66</v>
       </c>
-      <c r="B8" s="73" t="s">
+      <c r="B8" s="76" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="74"/>
-      <c r="D8" s="74"/>
-      <c r="E8" s="74"/>
-      <c r="F8" s="74"/>
-      <c r="G8" s="74"/>
-      <c r="H8" s="74"/>
-      <c r="I8" s="74"/>
-      <c r="J8" s="74"/>
-      <c r="K8" s="74"/>
-      <c r="L8" s="74"/>
-      <c r="M8" s="74"/>
-      <c r="N8" s="74"/>
-      <c r="O8" s="74"/>
-      <c r="P8" s="74"/>
-      <c r="Q8" s="74"/>
-      <c r="R8" s="74"/>
-      <c r="S8" s="74"/>
-      <c r="T8" s="74"/>
-      <c r="U8" s="74"/>
-      <c r="V8" s="74"/>
-      <c r="W8" s="74"/>
-      <c r="X8" s="74"/>
-      <c r="Y8" s="74"/>
-      <c r="Z8" s="74"/>
-      <c r="AA8" s="74"/>
-      <c r="AB8" s="74"/>
-      <c r="AC8" s="74"/>
-      <c r="AD8" s="74"/>
-      <c r="AE8" s="74"/>
-    </row>
-    <row r="9" spans="1:31" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C8" s="77"/>
+      <c r="D8" s="77"/>
+      <c r="E8" s="77"/>
+      <c r="F8" s="77"/>
+      <c r="G8" s="77"/>
+      <c r="H8" s="77"/>
+      <c r="I8" s="77"/>
+      <c r="J8" s="77"/>
+      <c r="K8" s="77"/>
+      <c r="L8" s="77"/>
+      <c r="M8" s="77"/>
+      <c r="N8" s="77"/>
+      <c r="O8" s="77"/>
+      <c r="P8" s="77"/>
+      <c r="Q8" s="77"/>
+      <c r="R8" s="77"/>
+      <c r="S8" s="77"/>
+      <c r="T8" s="77"/>
+      <c r="U8" s="77"/>
+      <c r="V8" s="77"/>
+      <c r="W8" s="77"/>
+      <c r="X8" s="77"/>
+      <c r="Y8" s="77"/>
+      <c r="Z8" s="77"/>
+      <c r="AA8" s="77"/>
+      <c r="AB8" s="77"/>
+      <c r="AC8" s="77"/>
+      <c r="AD8" s="77"/>
+      <c r="AE8" s="77"/>
+    </row>
+    <row r="9" spans="1:31" ht="50.25" customHeight="1">
       <c r="A9" s="3" t="s">
         <v>22</v>
       </c>
@@ -1874,9 +1900,9 @@
         <f>Брест!N9+Барановичи!N9+Пинск!N9</f>
         <v>0</v>
       </c>
-      <c r="O9" s="17" t="e">
+      <c r="O9" s="17">
         <f>Брест!O9+Барановичи!O9+Пинск!O9</f>
-        <v>#VALUE!</v>
+        <v>1</v>
       </c>
       <c r="P9" s="17">
         <f>Брест!P9+Барановичи!P9+Пинск!P9</f>
@@ -1934,16 +1960,16 @@
         <f>Брест!AC9+Барановичи!AC9+Пинск!AC9</f>
         <v>0</v>
       </c>
-      <c r="AD9" s="19" t="e">
+      <c r="AD9" s="19">
         <f>Брест!AD9+Барановичи!AD9+Пинск!AD9</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AE9" s="20" t="e">
+        <v>1</v>
+      </c>
+      <c r="AE9" s="20">
         <f>Брест!AE9+Барановичи!AE9+Пинск!AE9</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="10" spans="1:31" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" ht="36" customHeight="1">
       <c r="A10" s="3" t="s">
         <v>29</v>
       </c>
@@ -1998,9 +2024,9 @@
         <f>Брест!N10+Барановичи!N10+Пинск!N10</f>
         <v>0</v>
       </c>
-      <c r="O10" s="17" t="e">
+      <c r="O10" s="17">
         <f>Брест!O10+Барановичи!O10+Пинск!O10</f>
-        <v>#VALUE!</v>
+        <v>0</v>
       </c>
       <c r="P10" s="17">
         <f>Брест!P10+Барановичи!P10+Пинск!P10</f>
@@ -2058,16 +2084,16 @@
         <f>Брест!AC10+Барановичи!AC10+Пинск!AC10</f>
         <v>0</v>
       </c>
-      <c r="AD10" s="19" t="e">
+      <c r="AD10" s="19">
         <f>Брест!AD10+Барановичи!AD10+Пинск!AD10</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AE10" s="20" t="e">
+        <v>0</v>
+      </c>
+      <c r="AE10" s="20">
         <f>Брест!AE10+Барановичи!AE10+Пинск!AE10</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="11" spans="1:31" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" ht="26.25" customHeight="1">
       <c r="A11" s="3" t="s">
         <v>30</v>
       </c>
@@ -2122,9 +2148,9 @@
         <f>Брест!N11+Барановичи!N11+Пинск!N11</f>
         <v>0</v>
       </c>
-      <c r="O11" s="17" t="e">
+      <c r="O11" s="17">
         <f>Брест!O11+Барановичи!O11+Пинск!O11</f>
-        <v>#VALUE!</v>
+        <v>1</v>
       </c>
       <c r="P11" s="17">
         <f>Брест!P11+Барановичи!P11+Пинск!P11</f>
@@ -2134,9 +2160,9 @@
         <f>Брест!Q11+Барановичи!Q11+Пинск!Q11</f>
         <v>0</v>
       </c>
-      <c r="R11" s="17" t="e">
+      <c r="R11" s="17">
         <f>Брест!R11+Барановичи!R11+Пинск!R11</f>
-        <v>#VALUE!</v>
+        <v>5</v>
       </c>
       <c r="S11" s="17">
         <f>Брест!S11+Барановичи!S11+Пинск!S11</f>
@@ -2182,16 +2208,16 @@
         <f>Брест!AC11+Барановичи!AC11+Пинск!AC11</f>
         <v>0</v>
       </c>
-      <c r="AD11" s="19" t="e">
+      <c r="AD11" s="19">
         <f>Брест!AD11+Барановичи!AD11+Пинск!AD11</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AE11" s="20" t="e">
+        <v>6</v>
+      </c>
+      <c r="AE11" s="20">
         <f>Брест!AE11+Барановичи!AE11+Пинск!AE11</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="12" spans="1:31" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:31" ht="73.5" customHeight="1">
       <c r="A12" s="3" t="s">
         <v>31</v>
       </c>
@@ -2246,9 +2272,9 @@
         <f>Брест!N12+Барановичи!N12+Пинск!N12</f>
         <v>0</v>
       </c>
-      <c r="O12" s="17" t="e">
+      <c r="O12" s="17">
         <f>Брест!O12+Барановичи!O12+Пинск!O12</f>
-        <v>#VALUE!</v>
+        <v>1</v>
       </c>
       <c r="P12" s="17">
         <f>Брест!P12+Барановичи!P12+Пинск!P12</f>
@@ -2258,9 +2284,9 @@
         <f>Брест!Q12+Барановичи!Q12+Пинск!Q12</f>
         <v>0</v>
       </c>
-      <c r="R12" s="17" t="e">
+      <c r="R12" s="17">
         <f>Брест!R12+Барановичи!R12+Пинск!R12</f>
-        <v>#VALUE!</v>
+        <v>5</v>
       </c>
       <c r="S12" s="17">
         <f>Брест!S12+Барановичи!S12+Пинск!S12</f>
@@ -2306,16 +2332,16 @@
         <f>Брест!AC12+Барановичи!AC12+Пинск!AC12</f>
         <v>0</v>
       </c>
-      <c r="AD12" s="19" t="e">
+      <c r="AD12" s="19">
         <f>Брест!AD12+Барановичи!AD12+Пинск!AD12</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AE12" s="20" t="e">
+        <v>6</v>
+      </c>
+      <c r="AE12" s="20">
         <f>Брест!AE12+Барановичи!AE12+Пинск!AE12</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="13" spans="1:31" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" ht="60" customHeight="1">
       <c r="A13" s="3" t="s">
         <v>35</v>
       </c>
@@ -2370,9 +2396,9 @@
         <f>Брест!N13+Барановичи!N13+Пинск!N13</f>
         <v>0</v>
       </c>
-      <c r="O13" s="17" t="e">
+      <c r="O13" s="17">
         <f>Брест!O13+Барановичи!O13+Пинск!O13</f>
-        <v>#VALUE!</v>
+        <v>0</v>
       </c>
       <c r="P13" s="17">
         <f>Брест!P13+Барановичи!P13+Пинск!P13</f>
@@ -2430,16 +2456,16 @@
         <f>Брест!AC13+Барановичи!AC13+Пинск!AC13</f>
         <v>0</v>
       </c>
-      <c r="AD13" s="19" t="e">
+      <c r="AD13" s="19">
         <f>Брест!AD13+Барановичи!AD13+Пинск!AD13</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AE13" s="20" t="e">
+        <v>0</v>
+      </c>
+      <c r="AE13" s="20">
         <f>Брест!AE13+Барановичи!AE13+Пинск!AE13</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="14" spans="1:31" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" ht="70.5" customHeight="1">
       <c r="A14" s="3" t="s">
         <v>37</v>
       </c>
@@ -2494,9 +2520,9 @@
         <f>Брест!N14+Барановичи!N14+Пинск!N14</f>
         <v>0</v>
       </c>
-      <c r="O14" s="17" t="e">
+      <c r="O14" s="17">
         <f>Брест!O14+Барановичи!O14+Пинск!O14</f>
-        <v>#VALUE!</v>
+        <v>1</v>
       </c>
       <c r="P14" s="17">
         <f>Брест!P14+Барановичи!P14+Пинск!P14</f>
@@ -2506,9 +2532,9 @@
         <f>Брест!Q14+Барановичи!Q14+Пинск!Q14</f>
         <v>0</v>
       </c>
-      <c r="R14" s="17" t="e">
+      <c r="R14" s="17">
         <f>Брест!R14+Барановичи!R14+Пинск!R14</f>
-        <v>#VALUE!</v>
+        <v>5</v>
       </c>
       <c r="S14" s="17">
         <f>Брест!S14+Барановичи!S14+Пинск!S14</f>
@@ -2554,16 +2580,16 @@
         <f>Брест!AC14+Барановичи!AC14+Пинск!AC14</f>
         <v>0</v>
       </c>
-      <c r="AD14" s="19" t="e">
+      <c r="AD14" s="19">
         <f>Брест!AD14+Барановичи!AD14+Пинск!AD14</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AE14" s="20" t="e">
+        <v>6</v>
+      </c>
+      <c r="AE14" s="20">
         <f>Брест!AE14+Барановичи!AE14+Пинск!AE14</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="15" spans="1:31" ht="36" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" ht="36">
       <c r="A15" s="3" t="s">
         <v>40</v>
       </c>
@@ -2618,9 +2644,9 @@
         <f>Брест!N15+Барановичи!N15+Пинск!N15</f>
         <v>0</v>
       </c>
-      <c r="O15" s="17" t="e">
+      <c r="O15" s="17">
         <f>Брест!O15+Барановичи!O15+Пинск!O15</f>
-        <v>#VALUE!</v>
+        <v>0</v>
       </c>
       <c r="P15" s="17">
         <f>Брест!P15+Барановичи!P15+Пинск!P15</f>
@@ -2678,16 +2704,16 @@
         <f>Брест!AC15+Барановичи!AC15+Пинск!AC15</f>
         <v>0</v>
       </c>
-      <c r="AD15" s="19" t="e">
+      <c r="AD15" s="19">
         <f>Брест!AD15+Барановичи!AD15+Пинск!AD15</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AE15" s="20" t="e">
+        <v>0</v>
+      </c>
+      <c r="AE15" s="20">
         <f>Брест!AE15+Барановичи!AE15+Пинск!AE15</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="16" spans="1:31" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" ht="38.25" customHeight="1">
       <c r="A16" s="3" t="s">
         <v>41</v>
       </c>
@@ -2742,9 +2768,9 @@
         <f>Брест!N16+Барановичи!N16+Пинск!N16</f>
         <v>0</v>
       </c>
-      <c r="O16" s="17" t="e">
+      <c r="O16" s="17">
         <f>Брест!O16+Барановичи!O16+Пинск!O16</f>
-        <v>#VALUE!</v>
+        <v>0</v>
       </c>
       <c r="P16" s="17">
         <f>Брест!P16+Барановичи!P16+Пинск!P16</f>
@@ -2802,16 +2828,16 @@
         <f>Брест!AC16+Барановичи!AC16+Пинск!AC16</f>
         <v>0</v>
       </c>
-      <c r="AD16" s="19" t="e">
+      <c r="AD16" s="19">
         <f>Брест!AD16+Барановичи!AD16+Пинск!AD16</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AE16" s="20" t="e">
+        <v>0</v>
+      </c>
+      <c r="AE16" s="20">
         <f>Брест!AE16+Барановичи!AE16+Пинск!AE16</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="17" spans="1:31" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:31" ht="33" customHeight="1">
       <c r="A17" s="3" t="s">
         <v>42</v>
       </c>
@@ -2866,9 +2892,9 @@
         <f>Брест!N17+Барановичи!N17+Пинск!N17</f>
         <v>0</v>
       </c>
-      <c r="O17" s="17" t="e">
+      <c r="O17" s="17">
         <f>Брест!O17+Барановичи!O17+Пинск!O17</f>
-        <v>#VALUE!</v>
+        <v>0</v>
       </c>
       <c r="P17" s="17">
         <f>Брест!P17+Барановичи!P17+Пинск!P17</f>
@@ -2926,16 +2952,16 @@
         <f>Брест!AC17+Барановичи!AC17+Пинск!AC17</f>
         <v>0</v>
       </c>
-      <c r="AD17" s="19" t="e">
+      <c r="AD17" s="19">
         <f>Брест!AD17+Барановичи!AD17+Пинск!AD17</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AE17" s="20" t="e">
+        <v>0</v>
+      </c>
+      <c r="AE17" s="20">
         <f>Брест!AE17+Барановичи!AE17+Пинск!AE17</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="18" spans="1:31" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:31" ht="69.75" customHeight="1">
       <c r="A18" s="3" t="s">
         <v>32</v>
       </c>
@@ -2990,9 +3016,9 @@
         <f>Брест!N18+Барановичи!N18+Пинск!N18</f>
         <v>0</v>
       </c>
-      <c r="O18" s="17" t="e">
+      <c r="O18" s="17">
         <f>Брест!O18+Барановичи!O18+Пинск!O18</f>
-        <v>#VALUE!</v>
+        <v>0</v>
       </c>
       <c r="P18" s="17">
         <f>Брест!P18+Барановичи!P18+Пинск!P18</f>
@@ -3050,16 +3076,16 @@
         <f>Брест!AC18+Барановичи!AC18+Пинск!AC18</f>
         <v>0</v>
       </c>
-      <c r="AD18" s="19" t="e">
+      <c r="AD18" s="19">
         <f>Брест!AD18+Барановичи!AD18+Пинск!AD18</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AE18" s="20" t="e">
+        <v>0</v>
+      </c>
+      <c r="AE18" s="20">
         <f>Брест!AE18+Барановичи!AE18+Пинск!AE18</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="19" spans="1:31" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:31" ht="37.5" customHeight="1">
       <c r="A19" s="3" t="s">
         <v>43</v>
       </c>
@@ -3114,9 +3140,9 @@
         <f>Брест!N19+Барановичи!N19+Пинск!N19</f>
         <v>0</v>
       </c>
-      <c r="O19" s="17" t="e">
+      <c r="O19" s="17">
         <f>Брест!O19+Барановичи!O19+Пинск!O19</f>
-        <v>#VALUE!</v>
+        <v>0</v>
       </c>
       <c r="P19" s="17">
         <f>Брест!P19+Барановичи!P19+Пинск!P19</f>
@@ -3174,16 +3200,16 @@
         <f>Брест!AC19+Барановичи!AC19+Пинск!AC19</f>
         <v>0</v>
       </c>
-      <c r="AD19" s="19" t="e">
+      <c r="AD19" s="19">
         <f>Брест!AD19+Барановичи!AD19+Пинск!AD19</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AE19" s="20" t="e">
+        <v>0</v>
+      </c>
+      <c r="AE19" s="20">
         <f>Брест!AE19+Барановичи!AE19+Пинск!AE19</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="20" spans="1:31" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:31" ht="34.5" customHeight="1">
       <c r="A20" s="3" t="s">
         <v>44</v>
       </c>
@@ -3238,9 +3264,9 @@
         <f>Брест!N20+Барановичи!N20+Пинск!N20</f>
         <v>0</v>
       </c>
-      <c r="O20" s="17" t="e">
+      <c r="O20" s="17">
         <f>Брест!O20+Барановичи!O20+Пинск!O20</f>
-        <v>#VALUE!</v>
+        <v>0</v>
       </c>
       <c r="P20" s="17">
         <f>Брест!P20+Барановичи!P20+Пинск!P20</f>
@@ -3298,16 +3324,16 @@
         <f>Брест!AC20+Барановичи!AC20+Пинск!AC20</f>
         <v>0</v>
       </c>
-      <c r="AD20" s="19" t="e">
+      <c r="AD20" s="19">
         <f>Брест!AD20+Барановичи!AD20+Пинск!AD20</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AE20" s="20" t="e">
+        <v>0</v>
+      </c>
+      <c r="AE20" s="20">
         <f>Брест!AE20+Барановичи!AE20+Пинск!AE20</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="21" spans="1:31" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:31" ht="45.75" customHeight="1">
       <c r="A21" s="3" t="s">
         <v>33</v>
       </c>
@@ -3362,9 +3388,9 @@
         <f>Брест!N21+Барановичи!N21+Пинск!N21</f>
         <v>0</v>
       </c>
-      <c r="O21" s="17" t="e">
+      <c r="O21" s="17">
         <f>Брест!O21+Барановичи!O21+Пинск!O21</f>
-        <v>#VALUE!</v>
+        <v>0</v>
       </c>
       <c r="P21" s="17">
         <f>Брест!P21+Барановичи!P21+Пинск!P21</f>
@@ -3422,16 +3448,16 @@
         <f>Брест!AC21+Барановичи!AC21+Пинск!AC21</f>
         <v>0</v>
       </c>
-      <c r="AD21" s="19" t="e">
+      <c r="AD21" s="19">
         <f>Брест!AD21+Барановичи!AD21+Пинск!AD21</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AE21" s="20" t="e">
+        <v>0</v>
+      </c>
+      <c r="AE21" s="20">
         <f>Брест!AE21+Барановичи!AE21+Пинск!AE21</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="22" spans="1:31" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:31">
       <c r="A22" s="3" t="s">
         <v>46</v>
       </c>
@@ -3486,9 +3512,9 @@
         <f>Брест!N22+Барановичи!N22+Пинск!N22</f>
         <v>0</v>
       </c>
-      <c r="O22" s="17" t="e">
+      <c r="O22" s="17">
         <f>Брест!O22+Барановичи!O22+Пинск!O22</f>
-        <v>#VALUE!</v>
+        <v>0</v>
       </c>
       <c r="P22" s="17">
         <f>Брест!P22+Барановичи!P22+Пинск!P22</f>
@@ -3546,16 +3572,16 @@
         <f>Брест!AC22+Барановичи!AC22+Пинск!AC22</f>
         <v>0</v>
       </c>
-      <c r="AD22" s="19" t="e">
+      <c r="AD22" s="19">
         <f>Брест!AD22+Барановичи!AD22+Пинск!AD22</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AE22" s="20" t="e">
+        <v>0</v>
+      </c>
+      <c r="AE22" s="20">
         <f>Брест!AE22+Барановичи!AE22+Пинск!AE22</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="23" spans="1:31" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:31" ht="25.5" customHeight="1">
       <c r="A23" s="3" t="s">
         <v>47</v>
       </c>
@@ -3610,9 +3636,9 @@
         <f>Брест!N23+Барановичи!N23+Пинск!N23</f>
         <v>0</v>
       </c>
-      <c r="O23" s="17" t="e">
+      <c r="O23" s="17">
         <f>Брест!O23+Барановичи!O23+Пинск!O23</f>
-        <v>#VALUE!</v>
+        <v>0</v>
       </c>
       <c r="P23" s="17">
         <f>Брест!P23+Барановичи!P23+Пинск!P23</f>
@@ -3670,53 +3696,53 @@
         <f>Брест!AC23+Барановичи!AC23+Пинск!AC23</f>
         <v>0</v>
       </c>
-      <c r="AD23" s="19" t="e">
+      <c r="AD23" s="19">
         <f>Брест!AD23+Барановичи!AD23+Пинск!AD23</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AE23" s="20" t="e">
+        <v>0</v>
+      </c>
+      <c r="AE23" s="20">
         <f>Брест!AE23+Барановичи!AE23+Пинск!AE23</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="24" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:31" ht="16.5" customHeight="1">
       <c r="A24" s="39" t="s">
         <v>67</v>
       </c>
-      <c r="B24" s="68" t="s">
+      <c r="B24" s="72" t="s">
         <v>48</v>
       </c>
-      <c r="C24" s="68"/>
-      <c r="D24" s="68"/>
-      <c r="E24" s="68"/>
-      <c r="F24" s="68"/>
-      <c r="G24" s="68"/>
-      <c r="H24" s="68"/>
-      <c r="I24" s="68"/>
-      <c r="J24" s="68"/>
-      <c r="K24" s="68"/>
-      <c r="L24" s="68"/>
-      <c r="M24" s="68"/>
-      <c r="N24" s="68"/>
-      <c r="O24" s="68"/>
-      <c r="P24" s="68"/>
-      <c r="Q24" s="68"/>
-      <c r="R24" s="68"/>
-      <c r="S24" s="68"/>
-      <c r="T24" s="68"/>
-      <c r="U24" s="68"/>
-      <c r="V24" s="68"/>
-      <c r="W24" s="68"/>
-      <c r="X24" s="68"/>
-      <c r="Y24" s="68"/>
-      <c r="Z24" s="68"/>
-      <c r="AA24" s="68"/>
-      <c r="AB24" s="68"/>
-      <c r="AC24" s="68"/>
-      <c r="AD24" s="68"/>
-      <c r="AE24" s="68"/>
-    </row>
-    <row r="25" spans="1:31" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C24" s="72"/>
+      <c r="D24" s="72"/>
+      <c r="E24" s="72"/>
+      <c r="F24" s="72"/>
+      <c r="G24" s="72"/>
+      <c r="H24" s="72"/>
+      <c r="I24" s="72"/>
+      <c r="J24" s="72"/>
+      <c r="K24" s="72"/>
+      <c r="L24" s="72"/>
+      <c r="M24" s="72"/>
+      <c r="N24" s="72"/>
+      <c r="O24" s="72"/>
+      <c r="P24" s="72"/>
+      <c r="Q24" s="72"/>
+      <c r="R24" s="72"/>
+      <c r="S24" s="72"/>
+      <c r="T24" s="72"/>
+      <c r="U24" s="72"/>
+      <c r="V24" s="72"/>
+      <c r="W24" s="72"/>
+      <c r="X24" s="72"/>
+      <c r="Y24" s="72"/>
+      <c r="Z24" s="72"/>
+      <c r="AA24" s="72"/>
+      <c r="AB24" s="72"/>
+      <c r="AC24" s="72"/>
+      <c r="AD24" s="72"/>
+      <c r="AE24" s="72"/>
+    </row>
+    <row r="25" spans="1:31" ht="39" customHeight="1">
       <c r="A25" s="3" t="s">
         <v>49</v>
       </c>
@@ -3771,9 +3797,9 @@
         <f>Брест!N25+Барановичи!N25+Пинск!N25</f>
         <v>0</v>
       </c>
-      <c r="O25" s="21" t="e">
+      <c r="O25" s="21">
         <f>Брест!O25+Барановичи!O25+Пинск!O25</f>
-        <v>#VALUE!</v>
+        <v>290</v>
       </c>
       <c r="P25" s="21">
         <f>Брест!P25+Барановичи!P25+Пинск!P25</f>
@@ -3783,9 +3809,9 @@
         <f>Брест!Q25+Барановичи!Q25+Пинск!Q25</f>
         <v>0</v>
       </c>
-      <c r="R25" s="21" t="e">
+      <c r="R25" s="21">
         <f>Брест!R25+Барановичи!R25+Пинск!R25</f>
-        <v>#VALUE!</v>
+        <v>60.9</v>
       </c>
       <c r="S25" s="21">
         <f>Брест!S25+Барановичи!S25+Пинск!S25</f>
@@ -3831,16 +3857,16 @@
         <f>Брест!AC25+Барановичи!AC25+Пинск!AC25</f>
         <v>0</v>
       </c>
-      <c r="AD25" s="23" t="e">
+      <c r="AD25" s="23">
         <f>Брест!AD25+Барановичи!AD25+Пинск!AD25</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AE25" s="24" t="e">
+        <v>350.9</v>
+      </c>
+      <c r="AE25" s="24">
         <f>Брест!AE25+Барановичи!AE25+Пинск!AE25</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="26" spans="1:31" ht="24" x14ac:dyDescent="0.25">
+        <v>1896.6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:31" ht="24">
       <c r="A26" s="3" t="s">
         <v>50</v>
       </c>
@@ -3895,9 +3921,9 @@
         <f>Брест!N26+Барановичи!N26+Пинск!N26</f>
         <v>0</v>
       </c>
-      <c r="O26" s="21" t="e">
+      <c r="O26" s="21">
         <f>Брест!O26+Барановичи!O26+Пинск!O26</f>
-        <v>#VALUE!</v>
+        <v>290</v>
       </c>
       <c r="P26" s="21">
         <f>Брест!P26+Барановичи!P26+Пинск!P26</f>
@@ -3907,9 +3933,9 @@
         <f>Брест!Q26+Барановичи!Q26+Пинск!Q26</f>
         <v>0</v>
       </c>
-      <c r="R26" s="21" t="e">
+      <c r="R26" s="21">
         <f>Брест!R26+Барановичи!R26+Пинск!R26</f>
-        <v>#VALUE!</v>
+        <v>46.4</v>
       </c>
       <c r="S26" s="21">
         <f>Брест!S26+Барановичи!S26+Пинск!S26</f>
@@ -3955,53 +3981,53 @@
         <f>Брест!AC26+Барановичи!AC26+Пинск!AC26</f>
         <v>0</v>
       </c>
-      <c r="AD26" s="23" t="e">
+      <c r="AD26" s="23">
         <f>Брест!AD26+Барановичи!AD26+Пинск!AD26</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AE26" s="24" t="e">
+        <v>336.4</v>
+      </c>
+      <c r="AE26" s="24">
         <f>Брест!AE26+Барановичи!AE26+Пинск!AE26</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="27" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>548.1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:31" ht="15.75" customHeight="1">
       <c r="A27" s="39" t="s">
         <v>68</v>
       </c>
-      <c r="B27" s="69" t="s">
+      <c r="B27" s="73" t="s">
         <v>51</v>
       </c>
-      <c r="C27" s="69"/>
-      <c r="D27" s="69"/>
-      <c r="E27" s="69"/>
-      <c r="F27" s="69"/>
-      <c r="G27" s="69"/>
-      <c r="H27" s="69"/>
-      <c r="I27" s="69"/>
-      <c r="J27" s="69"/>
-      <c r="K27" s="69"/>
-      <c r="L27" s="69"/>
-      <c r="M27" s="69"/>
-      <c r="N27" s="69"/>
-      <c r="O27" s="69"/>
-      <c r="P27" s="69"/>
-      <c r="Q27" s="69"/>
-      <c r="R27" s="69"/>
-      <c r="S27" s="69"/>
-      <c r="T27" s="69"/>
-      <c r="U27" s="69"/>
-      <c r="V27" s="69"/>
-      <c r="W27" s="69"/>
-      <c r="X27" s="69"/>
-      <c r="Y27" s="69"/>
-      <c r="Z27" s="69"/>
-      <c r="AA27" s="69"/>
-      <c r="AB27" s="69"/>
-      <c r="AC27" s="69"/>
-      <c r="AD27" s="69"/>
-      <c r="AE27" s="69"/>
-    </row>
-    <row r="28" spans="1:31" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C27" s="73"/>
+      <c r="D27" s="73"/>
+      <c r="E27" s="73"/>
+      <c r="F27" s="73"/>
+      <c r="G27" s="73"/>
+      <c r="H27" s="73"/>
+      <c r="I27" s="73"/>
+      <c r="J27" s="73"/>
+      <c r="K27" s="73"/>
+      <c r="L27" s="73"/>
+      <c r="M27" s="73"/>
+      <c r="N27" s="73"/>
+      <c r="O27" s="73"/>
+      <c r="P27" s="73"/>
+      <c r="Q27" s="73"/>
+      <c r="R27" s="73"/>
+      <c r="S27" s="73"/>
+      <c r="T27" s="73"/>
+      <c r="U27" s="73"/>
+      <c r="V27" s="73"/>
+      <c r="W27" s="73"/>
+      <c r="X27" s="73"/>
+      <c r="Y27" s="73"/>
+      <c r="Z27" s="73"/>
+      <c r="AA27" s="73"/>
+      <c r="AB27" s="73"/>
+      <c r="AC27" s="73"/>
+      <c r="AD27" s="73"/>
+      <c r="AE27" s="73"/>
+    </row>
+    <row r="28" spans="1:31" ht="37.5" customHeight="1">
       <c r="A28" s="9" t="s">
         <v>62</v>
       </c>
@@ -4125,7 +4151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:31" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:31" ht="57" customHeight="1">
       <c r="A29" s="9" t="s">
         <v>63</v>
       </c>
@@ -4249,7 +4275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:31" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:31" ht="37.5" customHeight="1">
       <c r="A30" s="9" t="s">
         <v>52</v>
       </c>
@@ -4373,7 +4399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:31" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:31" ht="24.75" customHeight="1">
       <c r="A31" s="9" t="s">
         <v>59</v>
       </c>
@@ -4497,7 +4523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:31" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:31" ht="37.5" customHeight="1">
       <c r="A32" s="9" t="s">
         <v>60</v>
       </c>
@@ -4621,7 +4647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:31" ht="24" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:31" ht="24">
       <c r="A33" s="9" t="s">
         <v>61</v>
       </c>
@@ -4745,7 +4771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:31">
       <c r="A34" s="58"/>
       <c r="B34" s="59"/>
       <c r="C34" s="60"/>
@@ -4778,36 +4804,36 @@
       <c r="AD34" s="64"/>
       <c r="AE34" s="64"/>
     </row>
-    <row r="35" spans="1:31" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="71" t="s">
-        <v>86</v>
-      </c>
-      <c r="B35" s="71"/>
-      <c r="C35" s="71"/>
-      <c r="D35" s="71"/>
-      <c r="E35" s="71"/>
-      <c r="F35" s="71"/>
+    <row r="35" spans="1:31" ht="29.25" customHeight="1">
+      <c r="A35" s="67" t="s">
+        <v>88</v>
+      </c>
+      <c r="B35" s="67"/>
+      <c r="C35" s="67"/>
+      <c r="D35" s="67"/>
+      <c r="E35" s="67"/>
+      <c r="F35" s="67"/>
       <c r="G35" s="65"/>
-      <c r="H35" s="72"/>
-      <c r="I35" s="72"/>
-      <c r="J35" s="72"/>
-      <c r="K35" s="72"/>
+      <c r="H35" s="68"/>
+      <c r="I35" s="68"/>
+      <c r="J35" s="68"/>
+      <c r="K35" s="68"/>
       <c r="L35" s="62"/>
       <c r="M35" s="62"/>
       <c r="N35" s="62"/>
       <c r="O35" s="55"/>
-      <c r="P35" s="71" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q35" s="71"/>
-      <c r="R35" s="71"/>
-      <c r="S35" s="71"/>
-      <c r="T35" s="71"/>
-      <c r="U35" s="71"/>
-      <c r="V35" s="71"/>
-      <c r="W35" s="71"/>
-      <c r="X35" s="71"/>
-      <c r="Y35" s="71"/>
+      <c r="P35" s="67" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q35" s="67"/>
+      <c r="R35" s="67"/>
+      <c r="S35" s="67"/>
+      <c r="T35" s="67"/>
+      <c r="U35" s="67"/>
+      <c r="V35" s="67"/>
+      <c r="W35" s="67"/>
+      <c r="X35" s="67"/>
+      <c r="Y35" s="67"/>
       <c r="Z35" s="63"/>
       <c r="AA35" s="63"/>
       <c r="AB35" s="63"/>
@@ -4815,47 +4841,47 @@
       <c r="AD35" s="63"/>
       <c r="AE35" s="63"/>
     </row>
-    <row r="36" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:31">
       <c r="G36" s="41"/>
-      <c r="H36" s="78" t="s">
+      <c r="H36" s="69" t="s">
         <v>72</v>
       </c>
-      <c r="I36" s="78"/>
-      <c r="J36" s="78"/>
-      <c r="K36" s="78"/>
+      <c r="I36" s="69"/>
+      <c r="J36" s="69"/>
+      <c r="K36" s="69"/>
       <c r="M36" s="25"/>
       <c r="N36" s="25"/>
       <c r="O36" s="25"/>
       <c r="P36" s="25"/>
       <c r="Q36" s="25"/>
     </row>
-    <row r="37" spans="1:31" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="66" t="s">
-        <v>88</v>
-      </c>
-      <c r="B37" s="66"/>
-      <c r="C37" s="66"/>
-      <c r="D37" s="66"/>
-      <c r="E37" s="66"/>
-      <c r="F37" s="66"/>
-      <c r="G37" s="66"/>
-      <c r="H37" s="66"/>
-      <c r="I37" s="66"/>
-      <c r="J37" s="66"/>
-      <c r="K37" s="66"/>
-    </row>
-    <row r="38" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A38" s="67"/>
-      <c r="B38" s="67"/>
-      <c r="C38" s="67"/>
-      <c r="D38" s="67"/>
-      <c r="E38" s="67"/>
-      <c r="F38" s="67"/>
-      <c r="G38" s="67"/>
-      <c r="H38" s="67"/>
-      <c r="I38" s="67"/>
-      <c r="J38" s="67"/>
-      <c r="K38" s="67"/>
+    <row r="37" spans="1:31" ht="24.75" customHeight="1">
+      <c r="A37" s="70" t="s">
+        <v>90</v>
+      </c>
+      <c r="B37" s="70"/>
+      <c r="C37" s="70"/>
+      <c r="D37" s="70"/>
+      <c r="E37" s="70"/>
+      <c r="F37" s="70"/>
+      <c r="G37" s="70"/>
+      <c r="H37" s="70"/>
+      <c r="I37" s="70"/>
+      <c r="J37" s="70"/>
+      <c r="K37" s="70"/>
+    </row>
+    <row r="38" spans="1:31">
+      <c r="A38" s="71"/>
+      <c r="B38" s="71"/>
+      <c r="C38" s="71"/>
+      <c r="D38" s="71"/>
+      <c r="E38" s="71"/>
+      <c r="F38" s="71"/>
+      <c r="G38" s="71"/>
+      <c r="H38" s="71"/>
+      <c r="I38" s="71"/>
+      <c r="J38" s="71"/>
+      <c r="K38" s="71"/>
     </row>
   </sheetData>
   <mergeCells count="23">
@@ -4868,6 +4894,11 @@
     <mergeCell ref="I2:M2"/>
     <mergeCell ref="L5:N5"/>
     <mergeCell ref="AE5:AE6"/>
+    <mergeCell ref="B8:AE8"/>
+    <mergeCell ref="O5:Q5"/>
+    <mergeCell ref="AD5:AD6"/>
+    <mergeCell ref="I5:K5"/>
+    <mergeCell ref="H36:K36"/>
     <mergeCell ref="A37:K37"/>
     <mergeCell ref="A38:K38"/>
     <mergeCell ref="B24:AE24"/>
@@ -4877,11 +4908,6 @@
     <mergeCell ref="H35:K35"/>
     <mergeCell ref="P35:U35"/>
     <mergeCell ref="V35:Y35"/>
-    <mergeCell ref="B8:AE8"/>
-    <mergeCell ref="O5:Q5"/>
-    <mergeCell ref="AD5:AD6"/>
-    <mergeCell ref="I5:K5"/>
-    <mergeCell ref="H36:K36"/>
   </mergeCells>
   <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.39370078740157483" bottom="0.3" header="0.11811023622047245" footer="0.11811023622047245"/>
   <pageSetup paperSize="9" scale="84" fitToHeight="0" orientation="landscape" r:id="rId1"/>
@@ -4889,18 +4915,18 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:AE38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:AE3"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="W12" sqref="W12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="4.28515625" customWidth="1"/>
     <col min="2" max="2" width="24.140625" customWidth="1"/>
@@ -4930,59 +4956,59 @@
     <col min="31" max="31" width="8.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="79" t="s">
+    <row r="1" spans="1:31" ht="21" customHeight="1">
+      <c r="A1" s="81" t="s">
         <v>75</v>
       </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="79"/>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="79"/>
-      <c r="R1" s="79"/>
-      <c r="S1" s="79"/>
-      <c r="T1" s="79"/>
-      <c r="U1" s="79"/>
-      <c r="V1" s="79"/>
-      <c r="W1" s="79"/>
-      <c r="X1" s="79"/>
-      <c r="Y1" s="79"/>
-      <c r="Z1" s="79"/>
-      <c r="AA1" s="79"/>
-      <c r="AB1" s="79"/>
-      <c r="AC1" s="79"/>
-      <c r="AD1" s="79"/>
-      <c r="AE1" s="79"/>
-    </row>
-    <row r="2" spans="1:31" ht="43.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="82" t="s">
+      <c r="B1" s="81"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="81"/>
+      <c r="H1" s="81"/>
+      <c r="I1" s="81"/>
+      <c r="J1" s="81"/>
+      <c r="K1" s="81"/>
+      <c r="L1" s="81"/>
+      <c r="M1" s="81"/>
+      <c r="N1" s="81"/>
+      <c r="O1" s="81"/>
+      <c r="P1" s="81"/>
+      <c r="Q1" s="81"/>
+      <c r="R1" s="81"/>
+      <c r="S1" s="81"/>
+      <c r="T1" s="81"/>
+      <c r="U1" s="81"/>
+      <c r="V1" s="81"/>
+      <c r="W1" s="81"/>
+      <c r="X1" s="81"/>
+      <c r="Y1" s="81"/>
+      <c r="Z1" s="81"/>
+      <c r="AA1" s="81"/>
+      <c r="AB1" s="81"/>
+      <c r="AC1" s="81"/>
+      <c r="AD1" s="81"/>
+      <c r="AE1" s="81"/>
+    </row>
+    <row r="2" spans="1:31" ht="43.5" hidden="1" customHeight="1">
+      <c r="A2" s="84" t="s">
         <v>73</v>
       </c>
-      <c r="B2" s="83"/>
-      <c r="C2" s="83"/>
-      <c r="D2" s="83"/>
-      <c r="E2" s="83"/>
-      <c r="F2" s="83"/>
-      <c r="G2" s="83"/>
-      <c r="H2" s="83"/>
-      <c r="I2" s="84" t="s">
+      <c r="B2" s="85"/>
+      <c r="C2" s="85"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="85"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="85"/>
+      <c r="H2" s="85"/>
+      <c r="I2" s="86" t="s">
         <v>74</v>
       </c>
-      <c r="J2" s="85"/>
-      <c r="K2" s="85"/>
-      <c r="L2" s="85"/>
-      <c r="M2" s="85"/>
+      <c r="J2" s="87"/>
+      <c r="K2" s="87"/>
+      <c r="L2" s="87"/>
+      <c r="M2" s="87"/>
       <c r="N2" s="27"/>
       <c r="O2" s="27"/>
       <c r="P2" s="27"/>
@@ -5002,42 +5028,42 @@
       <c r="AD2" s="27"/>
       <c r="AE2" s="27"/>
     </row>
-    <row r="3" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="79" t="s">
-        <v>90</v>
-      </c>
-      <c r="B3" s="79"/>
-      <c r="C3" s="79"/>
-      <c r="D3" s="79"/>
-      <c r="E3" s="79"/>
-      <c r="F3" s="79"/>
-      <c r="G3" s="79"/>
-      <c r="H3" s="79"/>
-      <c r="I3" s="79"/>
-      <c r="J3" s="79"/>
-      <c r="K3" s="79"/>
-      <c r="L3" s="79"/>
-      <c r="M3" s="79"/>
-      <c r="N3" s="79"/>
-      <c r="O3" s="79"/>
-      <c r="P3" s="79"/>
-      <c r="Q3" s="79"/>
-      <c r="R3" s="79"/>
-      <c r="S3" s="79"/>
-      <c r="T3" s="79"/>
-      <c r="U3" s="79"/>
-      <c r="V3" s="79"/>
-      <c r="W3" s="79"/>
-      <c r="X3" s="79"/>
-      <c r="Y3" s="79"/>
-      <c r="Z3" s="79"/>
-      <c r="AA3" s="79"/>
-      <c r="AB3" s="79"/>
-      <c r="AC3" s="79"/>
-      <c r="AD3" s="79"/>
-      <c r="AE3" s="79"/>
-    </row>
-    <row r="4" spans="1:31" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:31" ht="18.75" customHeight="1">
+      <c r="A3" s="81" t="s">
+        <v>83</v>
+      </c>
+      <c r="B3" s="81"/>
+      <c r="C3" s="81"/>
+      <c r="D3" s="81"/>
+      <c r="E3" s="81"/>
+      <c r="F3" s="81"/>
+      <c r="G3" s="81"/>
+      <c r="H3" s="81"/>
+      <c r="I3" s="81"/>
+      <c r="J3" s="81"/>
+      <c r="K3" s="81"/>
+      <c r="L3" s="81"/>
+      <c r="M3" s="81"/>
+      <c r="N3" s="81"/>
+      <c r="O3" s="81"/>
+      <c r="P3" s="81"/>
+      <c r="Q3" s="81"/>
+      <c r="R3" s="81"/>
+      <c r="S3" s="81"/>
+      <c r="T3" s="81"/>
+      <c r="U3" s="81"/>
+      <c r="V3" s="81"/>
+      <c r="W3" s="81"/>
+      <c r="X3" s="81"/>
+      <c r="Y3" s="81"/>
+      <c r="Z3" s="81"/>
+      <c r="AA3" s="81"/>
+      <c r="AB3" s="81"/>
+      <c r="AC3" s="81"/>
+      <c r="AD3" s="81"/>
+      <c r="AE3" s="81"/>
+    </row>
+    <row r="4" spans="1:31" ht="11.25" customHeight="1">
       <c r="A4" s="53"/>
       <c r="B4" s="53"/>
       <c r="C4" s="53"/>
@@ -5070,38 +5096,38 @@
       <c r="AD4" s="53"/>
       <c r="AE4" s="53"/>
     </row>
-    <row r="5" spans="1:31" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:31" ht="32.25" customHeight="1">
       <c r="A5" s="51" t="s">
         <v>0</v>
       </c>
       <c r="B5" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="75" t="s">
+      <c r="C5" s="78" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="75"/>
-      <c r="E5" s="75"/>
-      <c r="F5" s="75" t="s">
+      <c r="D5" s="78"/>
+      <c r="E5" s="78"/>
+      <c r="F5" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="G5" s="75"/>
-      <c r="H5" s="75"/>
-      <c r="I5" s="75" t="s">
+      <c r="G5" s="78"/>
+      <c r="H5" s="78"/>
+      <c r="I5" s="78" t="s">
         <v>7</v>
       </c>
-      <c r="J5" s="75"/>
-      <c r="K5" s="75"/>
-      <c r="L5" s="75" t="s">
+      <c r="J5" s="78"/>
+      <c r="K5" s="78"/>
+      <c r="L5" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="M5" s="75"/>
-      <c r="N5" s="75"/>
-      <c r="O5" s="75" t="s">
+      <c r="M5" s="78"/>
+      <c r="N5" s="78"/>
+      <c r="O5" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="P5" s="75"/>
-      <c r="Q5" s="75"/>
+      <c r="P5" s="78"/>
+      <c r="Q5" s="78"/>
       <c r="R5" s="52" t="s">
         <v>10</v>
       </c>
@@ -5111,14 +5137,14 @@
       <c r="T5" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="U5" s="70" t="s">
+      <c r="U5" s="66" t="s">
         <v>13</v>
       </c>
-      <c r="V5" s="70"/>
-      <c r="W5" s="80" t="s">
+      <c r="V5" s="66"/>
+      <c r="W5" s="82" t="s">
         <v>14</v>
       </c>
-      <c r="X5" s="81"/>
+      <c r="X5" s="83"/>
       <c r="Y5" s="52" t="s">
         <v>15</v>
       </c>
@@ -5134,14 +5160,14 @@
       <c r="AC5" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="AD5" s="76" t="s">
+      <c r="AD5" s="79" t="s">
         <v>20</v>
       </c>
-      <c r="AE5" s="86" t="s">
+      <c r="AE5" s="74" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="6" spans="1:31" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:31" ht="30.75" customHeight="1">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="51" t="s">
@@ -5225,10 +5251,10 @@
       <c r="AC6" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="AD6" s="77"/>
-      <c r="AE6" s="87"/>
-    </row>
-    <row r="7" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD6" s="80"/>
+      <c r="AE6" s="75"/>
+    </row>
+    <row r="7" spans="1:31" ht="12.75" customHeight="1">
       <c r="A7" s="2">
         <v>1</v>
       </c>
@@ -5323,44 +5349,44 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:31" ht="16.5" customHeight="1">
       <c r="A8" s="38" t="s">
         <v>66</v>
       </c>
-      <c r="B8" s="73" t="s">
+      <c r="B8" s="76" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="74"/>
-      <c r="D8" s="74"/>
-      <c r="E8" s="74"/>
-      <c r="F8" s="74"/>
-      <c r="G8" s="74"/>
-      <c r="H8" s="74"/>
-      <c r="I8" s="74"/>
-      <c r="J8" s="74"/>
-      <c r="K8" s="74"/>
-      <c r="L8" s="74"/>
-      <c r="M8" s="74"/>
-      <c r="N8" s="74"/>
-      <c r="O8" s="74"/>
-      <c r="P8" s="74"/>
-      <c r="Q8" s="74"/>
-      <c r="R8" s="74"/>
-      <c r="S8" s="74"/>
-      <c r="T8" s="74"/>
-      <c r="U8" s="74"/>
-      <c r="V8" s="74"/>
-      <c r="W8" s="74"/>
-      <c r="X8" s="74"/>
-      <c r="Y8" s="74"/>
-      <c r="Z8" s="74"/>
-      <c r="AA8" s="74"/>
-      <c r="AB8" s="74"/>
-      <c r="AC8" s="74"/>
-      <c r="AD8" s="74"/>
-      <c r="AE8" s="74"/>
-    </row>
-    <row r="9" spans="1:31" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C8" s="77"/>
+      <c r="D8" s="77"/>
+      <c r="E8" s="77"/>
+      <c r="F8" s="77"/>
+      <c r="G8" s="77"/>
+      <c r="H8" s="77"/>
+      <c r="I8" s="77"/>
+      <c r="J8" s="77"/>
+      <c r="K8" s="77"/>
+      <c r="L8" s="77"/>
+      <c r="M8" s="77"/>
+      <c r="N8" s="77"/>
+      <c r="O8" s="77"/>
+      <c r="P8" s="77"/>
+      <c r="Q8" s="77"/>
+      <c r="R8" s="77"/>
+      <c r="S8" s="77"/>
+      <c r="T8" s="77"/>
+      <c r="U8" s="77"/>
+      <c r="V8" s="77"/>
+      <c r="W8" s="77"/>
+      <c r="X8" s="77"/>
+      <c r="Y8" s="77"/>
+      <c r="Z8" s="77"/>
+      <c r="AA8" s="77"/>
+      <c r="AB8" s="77"/>
+      <c r="AC8" s="77"/>
+      <c r="AD8" s="77"/>
+      <c r="AE8" s="77"/>
+    </row>
+    <row r="9" spans="1:31" ht="50.25" customHeight="1">
       <c r="A9" s="3" t="s">
         <v>22</v>
       </c>
@@ -5395,11 +5421,11 @@
       <c r="AB9" s="17"/>
       <c r="AC9" s="18"/>
       <c r="AD9" s="19"/>
-      <c r="AE9" s="20" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="10" spans="1:31" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE9" s="20">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" ht="36" customHeight="1">
       <c r="A10" s="3" t="s">
         <v>29</v>
       </c>
@@ -5434,11 +5460,11 @@
       <c r="AB10" s="17"/>
       <c r="AC10" s="18"/>
       <c r="AD10" s="19"/>
-      <c r="AE10" s="20" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="11" spans="1:31" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE10" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" ht="26.25" customHeight="1">
       <c r="A11" s="3" t="s">
         <v>30</v>
       </c>
@@ -5460,8 +5486,8 @@
       <c r="O11" s="17"/>
       <c r="P11" s="17"/>
       <c r="Q11" s="17"/>
-      <c r="R11" s="17" t="s">
-        <v>89</v>
+      <c r="R11" s="17">
+        <v>1</v>
       </c>
       <c r="S11" s="17"/>
       <c r="T11" s="17"/>
@@ -5474,14 +5500,14 @@
       <c r="AA11" s="17"/>
       <c r="AB11" s="17"/>
       <c r="AC11" s="18"/>
-      <c r="AD11" s="19" t="s">
-        <v>89</v>
-      </c>
-      <c r="AE11" s="20" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="12" spans="1:31" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD11" s="19">
+        <v>1</v>
+      </c>
+      <c r="AE11" s="20">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:31" ht="73.5" customHeight="1">
       <c r="A12" s="3" t="s">
         <v>31</v>
       </c>
@@ -5503,8 +5529,8 @@
       <c r="O12" s="17"/>
       <c r="P12" s="17"/>
       <c r="Q12" s="17"/>
-      <c r="R12" s="17" t="s">
-        <v>89</v>
+      <c r="R12" s="17">
+        <v>1</v>
       </c>
       <c r="S12" s="17"/>
       <c r="T12" s="17"/>
@@ -5517,14 +5543,14 @@
       <c r="AA12" s="17"/>
       <c r="AB12" s="17"/>
       <c r="AC12" s="18"/>
-      <c r="AD12" s="19" t="s">
-        <v>89</v>
-      </c>
-      <c r="AE12" s="20" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="13" spans="1:31" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD12" s="19">
+        <v>1</v>
+      </c>
+      <c r="AE12" s="20">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" ht="60" customHeight="1">
       <c r="A13" s="3" t="s">
         <v>35</v>
       </c>
@@ -5561,7 +5587,7 @@
       <c r="AD13" s="19"/>
       <c r="AE13" s="20"/>
     </row>
-    <row r="14" spans="1:31" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:31" ht="70.5" customHeight="1">
       <c r="A14" s="3" t="s">
         <v>37</v>
       </c>
@@ -5583,8 +5609,8 @@
       <c r="O14" s="17"/>
       <c r="P14" s="17"/>
       <c r="Q14" s="17"/>
-      <c r="R14" s="17" t="s">
-        <v>89</v>
+      <c r="R14" s="17">
+        <v>1</v>
       </c>
       <c r="S14" s="17"/>
       <c r="T14" s="17"/>
@@ -5597,14 +5623,14 @@
       <c r="AA14" s="17"/>
       <c r="AB14" s="17"/>
       <c r="AC14" s="18"/>
-      <c r="AD14" s="19" t="s">
-        <v>89</v>
-      </c>
-      <c r="AE14" s="20" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="15" spans="1:31" ht="36" x14ac:dyDescent="0.25">
+      <c r="AD14" s="19">
+        <v>1</v>
+      </c>
+      <c r="AE14" s="20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" ht="36">
       <c r="A15" s="3" t="s">
         <v>40</v>
       </c>
@@ -5641,7 +5667,7 @@
       <c r="AD15" s="19"/>
       <c r="AE15" s="20"/>
     </row>
-    <row r="16" spans="1:31" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:31" ht="38.25" customHeight="1">
       <c r="A16" s="3" t="s">
         <v>41</v>
       </c>
@@ -5676,11 +5702,11 @@
       <c r="AB16" s="17"/>
       <c r="AC16" s="18"/>
       <c r="AD16" s="19"/>
-      <c r="AE16" s="20" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="17" spans="1:31" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE16" s="20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:31" ht="33" customHeight="1">
       <c r="A17" s="3" t="s">
         <v>42</v>
       </c>
@@ -5717,7 +5743,7 @@
       <c r="AD17" s="19"/>
       <c r="AE17" s="20"/>
     </row>
-    <row r="18" spans="1:31" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:31" ht="69.75" customHeight="1">
       <c r="A18" s="3" t="s">
         <v>32</v>
       </c>
@@ -5752,11 +5778,11 @@
       <c r="AB18" s="17"/>
       <c r="AC18" s="18"/>
       <c r="AD18" s="19"/>
-      <c r="AE18" s="20" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="19" spans="1:31" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE18" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:31" ht="37.5" customHeight="1">
       <c r="A19" s="3" t="s">
         <v>43</v>
       </c>
@@ -5791,11 +5817,11 @@
       <c r="AB19" s="17"/>
       <c r="AC19" s="18"/>
       <c r="AD19" s="19"/>
-      <c r="AE19" s="20" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="20" spans="1:31" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE19" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:31" ht="34.5" customHeight="1">
       <c r="A20" s="3" t="s">
         <v>44</v>
       </c>
@@ -5832,7 +5858,7 @@
       <c r="AD20" s="19"/>
       <c r="AE20" s="20"/>
     </row>
-    <row r="21" spans="1:31" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:31" ht="45.75" customHeight="1">
       <c r="A21" s="3" t="s">
         <v>33</v>
       </c>
@@ -5867,11 +5893,11 @@
       <c r="AB21" s="17"/>
       <c r="AC21" s="18"/>
       <c r="AD21" s="19"/>
-      <c r="AE21" s="20" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="22" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AE21" s="20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:31">
       <c r="A22" s="3" t="s">
         <v>46</v>
       </c>
@@ -5906,11 +5932,11 @@
       <c r="AB22" s="17"/>
       <c r="AC22" s="18"/>
       <c r="AD22" s="19"/>
-      <c r="AE22" s="20" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="23" spans="1:31" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE22" s="20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:31" ht="25.5" customHeight="1">
       <c r="A23" s="3" t="s">
         <v>47</v>
       </c>
@@ -5945,48 +5971,48 @@
       <c r="AB23" s="17"/>
       <c r="AC23" s="18"/>
       <c r="AD23" s="19"/>
-      <c r="AE23" s="20" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="24" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE23" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:31" ht="16.5" customHeight="1">
       <c r="A24" s="39" t="s">
         <v>67</v>
       </c>
-      <c r="B24" s="68" t="s">
+      <c r="B24" s="72" t="s">
         <v>48</v>
       </c>
-      <c r="C24" s="68"/>
-      <c r="D24" s="68"/>
-      <c r="E24" s="68"/>
-      <c r="F24" s="68"/>
-      <c r="G24" s="68"/>
-      <c r="H24" s="68"/>
-      <c r="I24" s="68"/>
-      <c r="J24" s="68"/>
-      <c r="K24" s="68"/>
-      <c r="L24" s="68"/>
-      <c r="M24" s="68"/>
-      <c r="N24" s="68"/>
-      <c r="O24" s="68"/>
-      <c r="P24" s="68"/>
-      <c r="Q24" s="68"/>
-      <c r="R24" s="68"/>
-      <c r="S24" s="68"/>
-      <c r="T24" s="68"/>
-      <c r="U24" s="68"/>
-      <c r="V24" s="68"/>
-      <c r="W24" s="68"/>
-      <c r="X24" s="68"/>
-      <c r="Y24" s="68"/>
-      <c r="Z24" s="68"/>
-      <c r="AA24" s="68"/>
-      <c r="AB24" s="68"/>
-      <c r="AC24" s="68"/>
-      <c r="AD24" s="68"/>
-      <c r="AE24" s="68"/>
-    </row>
-    <row r="25" spans="1:31" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C24" s="72"/>
+      <c r="D24" s="72"/>
+      <c r="E24" s="72"/>
+      <c r="F24" s="72"/>
+      <c r="G24" s="72"/>
+      <c r="H24" s="72"/>
+      <c r="I24" s="72"/>
+      <c r="J24" s="72"/>
+      <c r="K24" s="72"/>
+      <c r="L24" s="72"/>
+      <c r="M24" s="72"/>
+      <c r="N24" s="72"/>
+      <c r="O24" s="72"/>
+      <c r="P24" s="72"/>
+      <c r="Q24" s="72"/>
+      <c r="R24" s="72"/>
+      <c r="S24" s="72"/>
+      <c r="T24" s="72"/>
+      <c r="U24" s="72"/>
+      <c r="V24" s="72"/>
+      <c r="W24" s="72"/>
+      <c r="X24" s="72"/>
+      <c r="Y24" s="72"/>
+      <c r="Z24" s="72"/>
+      <c r="AA24" s="72"/>
+      <c r="AB24" s="72"/>
+      <c r="AC24" s="72"/>
+      <c r="AD24" s="72"/>
+      <c r="AE24" s="72"/>
+    </row>
+    <row r="25" spans="1:31" ht="39" customHeight="1">
       <c r="A25" s="3" t="s">
         <v>49</v>
       </c>
@@ -6008,8 +6034,8 @@
       <c r="O25" s="21"/>
       <c r="P25" s="21"/>
       <c r="Q25" s="21"/>
-      <c r="R25" s="21" t="s">
-        <v>89</v>
+      <c r="R25" s="21">
+        <v>14.5</v>
       </c>
       <c r="S25" s="21"/>
       <c r="T25" s="21"/>
@@ -6022,14 +6048,14 @@
       <c r="AA25" s="21"/>
       <c r="AB25" s="21"/>
       <c r="AC25" s="22"/>
-      <c r="AD25" s="23" t="s">
-        <v>89</v>
-      </c>
-      <c r="AE25" s="24" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="26" spans="1:31" ht="24" x14ac:dyDescent="0.25">
+      <c r="AD25" s="23">
+        <v>14.5</v>
+      </c>
+      <c r="AE25" s="24">
+        <v>507.5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:31" ht="24">
       <c r="A26" s="3" t="s">
         <v>50</v>
       </c>
@@ -6064,48 +6090,48 @@
       <c r="AB26" s="21"/>
       <c r="AC26" s="22"/>
       <c r="AD26" s="23"/>
-      <c r="AE26" s="24" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="27" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE26" s="24">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="27" spans="1:31" ht="15.75" customHeight="1">
       <c r="A27" s="39" t="s">
         <v>68</v>
       </c>
-      <c r="B27" s="69" t="s">
+      <c r="B27" s="73" t="s">
         <v>51</v>
       </c>
-      <c r="C27" s="69"/>
-      <c r="D27" s="69"/>
-      <c r="E27" s="69"/>
-      <c r="F27" s="69"/>
-      <c r="G27" s="69"/>
-      <c r="H27" s="69"/>
-      <c r="I27" s="69"/>
-      <c r="J27" s="69"/>
-      <c r="K27" s="69"/>
-      <c r="L27" s="69"/>
-      <c r="M27" s="69"/>
-      <c r="N27" s="69"/>
-      <c r="O27" s="69"/>
-      <c r="P27" s="69"/>
-      <c r="Q27" s="69"/>
-      <c r="R27" s="69"/>
-      <c r="S27" s="69"/>
-      <c r="T27" s="69"/>
-      <c r="U27" s="69"/>
-      <c r="V27" s="69"/>
-      <c r="W27" s="69"/>
-      <c r="X27" s="69"/>
-      <c r="Y27" s="69"/>
-      <c r="Z27" s="69"/>
-      <c r="AA27" s="69"/>
-      <c r="AB27" s="69"/>
-      <c r="AC27" s="69"/>
-      <c r="AD27" s="69"/>
-      <c r="AE27" s="69"/>
-    </row>
-    <row r="28" spans="1:31" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C27" s="73"/>
+      <c r="D27" s="73"/>
+      <c r="E27" s="73"/>
+      <c r="F27" s="73"/>
+      <c r="G27" s="73"/>
+      <c r="H27" s="73"/>
+      <c r="I27" s="73"/>
+      <c r="J27" s="73"/>
+      <c r="K27" s="73"/>
+      <c r="L27" s="73"/>
+      <c r="M27" s="73"/>
+      <c r="N27" s="73"/>
+      <c r="O27" s="73"/>
+      <c r="P27" s="73"/>
+      <c r="Q27" s="73"/>
+      <c r="R27" s="73"/>
+      <c r="S27" s="73"/>
+      <c r="T27" s="73"/>
+      <c r="U27" s="73"/>
+      <c r="V27" s="73"/>
+      <c r="W27" s="73"/>
+      <c r="X27" s="73"/>
+      <c r="Y27" s="73"/>
+      <c r="Z27" s="73"/>
+      <c r="AA27" s="73"/>
+      <c r="AB27" s="73"/>
+      <c r="AC27" s="73"/>
+      <c r="AD27" s="73"/>
+      <c r="AE27" s="73"/>
+    </row>
+    <row r="28" spans="1:31" ht="37.5" customHeight="1">
       <c r="A28" s="9" t="s">
         <v>62</v>
       </c>
@@ -6142,7 +6168,7 @@
       <c r="AD28" s="19"/>
       <c r="AE28" s="20"/>
     </row>
-    <row r="29" spans="1:31" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:31" ht="57" customHeight="1">
       <c r="A29" s="9" t="s">
         <v>63</v>
       </c>
@@ -6179,7 +6205,7 @@
       <c r="AD29" s="19"/>
       <c r="AE29" s="20"/>
     </row>
-    <row r="30" spans="1:31" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:31" ht="37.5" customHeight="1">
       <c r="A30" s="9" t="s">
         <v>52</v>
       </c>
@@ -6216,7 +6242,7 @@
       <c r="AD30" s="19"/>
       <c r="AE30" s="20"/>
     </row>
-    <row r="31" spans="1:31" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:31" ht="24.75" customHeight="1">
       <c r="A31" s="9" t="s">
         <v>59</v>
       </c>
@@ -6253,7 +6279,7 @@
       <c r="AD31" s="19"/>
       <c r="AE31" s="20"/>
     </row>
-    <row r="32" spans="1:31" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:31" ht="37.5" customHeight="1">
       <c r="A32" s="9" t="s">
         <v>60</v>
       </c>
@@ -6290,7 +6316,7 @@
       <c r="AD32" s="19"/>
       <c r="AE32" s="20"/>
     </row>
-    <row r="33" spans="1:31" ht="24" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:31" ht="24">
       <c r="A33" s="9" t="s">
         <v>61</v>
       </c>
@@ -6327,7 +6353,7 @@
       <c r="AD33" s="19"/>
       <c r="AE33" s="20"/>
     </row>
-    <row r="34" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:31">
       <c r="A34" s="58"/>
       <c r="B34" s="59"/>
       <c r="C34" s="60"/>
@@ -6360,8 +6386,8 @@
       <c r="AD34" s="64"/>
       <c r="AE34" s="64"/>
     </row>
-    <row r="35" spans="1:31" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="71" t="s">
+    <row r="35" spans="1:31" ht="29.25" customHeight="1">
+      <c r="A35" s="67" t="s">
         <v>82</v>
       </c>
       <c r="B35" s="89"/>
@@ -6378,8 +6404,8 @@
       <c r="M35" s="62"/>
       <c r="N35" s="62"/>
       <c r="O35" s="55"/>
-      <c r="P35" s="71" t="s">
-        <v>84</v>
+      <c r="P35" s="67" t="s">
+        <v>86</v>
       </c>
       <c r="Q35" s="89"/>
       <c r="R35" s="89"/>
@@ -6397,7 +6423,7 @@
       <c r="AD35" s="63"/>
       <c r="AE35" s="63"/>
     </row>
-    <row r="36" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:31">
       <c r="G36" s="88" t="s">
         <v>72</v>
       </c>
@@ -6410,9 +6436,9 @@
       <c r="P36" s="25"/>
       <c r="Q36" s="25"/>
     </row>
-    <row r="37" spans="1:31" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:31" ht="24.75" customHeight="1">
       <c r="A37" s="90" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B37" s="90"/>
       <c r="C37" s="90"/>
@@ -6425,18 +6451,18 @@
       <c r="J37" s="90"/>
       <c r="K37" s="90"/>
     </row>
-    <row r="38" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A38" s="67"/>
-      <c r="B38" s="67"/>
-      <c r="C38" s="67"/>
-      <c r="D38" s="67"/>
-      <c r="E38" s="67"/>
-      <c r="F38" s="67"/>
-      <c r="G38" s="67"/>
-      <c r="H38" s="67"/>
-      <c r="I38" s="67"/>
-      <c r="J38" s="67"/>
-      <c r="K38" s="67"/>
+    <row r="38" spans="1:31">
+      <c r="A38" s="71"/>
+      <c r="B38" s="71"/>
+      <c r="C38" s="71"/>
+      <c r="D38" s="71"/>
+      <c r="E38" s="71"/>
+      <c r="F38" s="71"/>
+      <c r="G38" s="71"/>
+      <c r="H38" s="71"/>
+      <c r="I38" s="71"/>
+      <c r="J38" s="71"/>
+      <c r="K38" s="71"/>
     </row>
   </sheetData>
   <mergeCells count="21">
@@ -6468,18 +6494,18 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:AE37"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="AE30" sqref="AE30"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="J49" sqref="J49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="4.28515625" customWidth="1"/>
     <col min="2" max="2" width="24.140625" customWidth="1"/>
@@ -6509,59 +6535,59 @@
     <col min="31" max="31" width="8.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="79" t="s">
+    <row r="1" spans="1:31" ht="21" customHeight="1">
+      <c r="A1" s="81" t="s">
         <v>75</v>
       </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="79"/>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="79"/>
-      <c r="R1" s="79"/>
-      <c r="S1" s="79"/>
-      <c r="T1" s="79"/>
-      <c r="U1" s="79"/>
-      <c r="V1" s="79"/>
-      <c r="W1" s="79"/>
-      <c r="X1" s="79"/>
-      <c r="Y1" s="79"/>
-      <c r="Z1" s="79"/>
-      <c r="AA1" s="79"/>
-      <c r="AB1" s="79"/>
-      <c r="AC1" s="79"/>
-      <c r="AD1" s="79"/>
-      <c r="AE1" s="79"/>
-    </row>
-    <row r="2" spans="1:31" ht="43.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="82" t="s">
+      <c r="B1" s="81"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="81"/>
+      <c r="H1" s="81"/>
+      <c r="I1" s="81"/>
+      <c r="J1" s="81"/>
+      <c r="K1" s="81"/>
+      <c r="L1" s="81"/>
+      <c r="M1" s="81"/>
+      <c r="N1" s="81"/>
+      <c r="O1" s="81"/>
+      <c r="P1" s="81"/>
+      <c r="Q1" s="81"/>
+      <c r="R1" s="81"/>
+      <c r="S1" s="81"/>
+      <c r="T1" s="81"/>
+      <c r="U1" s="81"/>
+      <c r="V1" s="81"/>
+      <c r="W1" s="81"/>
+      <c r="X1" s="81"/>
+      <c r="Y1" s="81"/>
+      <c r="Z1" s="81"/>
+      <c r="AA1" s="81"/>
+      <c r="AB1" s="81"/>
+      <c r="AC1" s="81"/>
+      <c r="AD1" s="81"/>
+      <c r="AE1" s="81"/>
+    </row>
+    <row r="2" spans="1:31" ht="43.5" hidden="1" customHeight="1">
+      <c r="A2" s="84" t="s">
         <v>73</v>
       </c>
-      <c r="B2" s="83"/>
-      <c r="C2" s="83"/>
-      <c r="D2" s="83"/>
-      <c r="E2" s="83"/>
-      <c r="F2" s="83"/>
-      <c r="G2" s="83"/>
-      <c r="H2" s="83"/>
-      <c r="I2" s="84" t="s">
+      <c r="B2" s="85"/>
+      <c r="C2" s="85"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="85"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="85"/>
+      <c r="H2" s="85"/>
+      <c r="I2" s="86" t="s">
         <v>74</v>
       </c>
-      <c r="J2" s="85"/>
-      <c r="K2" s="85"/>
-      <c r="L2" s="85"/>
-      <c r="M2" s="85"/>
+      <c r="J2" s="87"/>
+      <c r="K2" s="87"/>
+      <c r="L2" s="87"/>
+      <c r="M2" s="87"/>
       <c r="N2" s="27"/>
       <c r="O2" s="27"/>
       <c r="P2" s="27"/>
@@ -6581,42 +6607,42 @@
       <c r="AD2" s="27"/>
       <c r="AE2" s="27"/>
     </row>
-    <row r="3" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="79" t="s">
+    <row r="3" spans="1:31" ht="18.75" customHeight="1">
+      <c r="A3" s="81" t="s">
         <v>79</v>
       </c>
-      <c r="B3" s="79"/>
-      <c r="C3" s="79"/>
-      <c r="D3" s="79"/>
-      <c r="E3" s="79"/>
-      <c r="F3" s="79"/>
-      <c r="G3" s="79"/>
-      <c r="H3" s="79"/>
-      <c r="I3" s="79"/>
-      <c r="J3" s="79"/>
-      <c r="K3" s="79"/>
-      <c r="L3" s="79"/>
-      <c r="M3" s="79"/>
-      <c r="N3" s="79"/>
-      <c r="O3" s="79"/>
-      <c r="P3" s="79"/>
-      <c r="Q3" s="79"/>
-      <c r="R3" s="79"/>
-      <c r="S3" s="79"/>
-      <c r="T3" s="79"/>
-      <c r="U3" s="79"/>
-      <c r="V3" s="79"/>
-      <c r="W3" s="79"/>
-      <c r="X3" s="79"/>
-      <c r="Y3" s="79"/>
-      <c r="Z3" s="79"/>
-      <c r="AA3" s="79"/>
-      <c r="AB3" s="79"/>
-      <c r="AC3" s="79"/>
-      <c r="AD3" s="79"/>
-      <c r="AE3" s="79"/>
-    </row>
-    <row r="4" spans="1:31" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="81"/>
+      <c r="C3" s="81"/>
+      <c r="D3" s="81"/>
+      <c r="E3" s="81"/>
+      <c r="F3" s="81"/>
+      <c r="G3" s="81"/>
+      <c r="H3" s="81"/>
+      <c r="I3" s="81"/>
+      <c r="J3" s="81"/>
+      <c r="K3" s="81"/>
+      <c r="L3" s="81"/>
+      <c r="M3" s="81"/>
+      <c r="N3" s="81"/>
+      <c r="O3" s="81"/>
+      <c r="P3" s="81"/>
+      <c r="Q3" s="81"/>
+      <c r="R3" s="81"/>
+      <c r="S3" s="81"/>
+      <c r="T3" s="81"/>
+      <c r="U3" s="81"/>
+      <c r="V3" s="81"/>
+      <c r="W3" s="81"/>
+      <c r="X3" s="81"/>
+      <c r="Y3" s="81"/>
+      <c r="Z3" s="81"/>
+      <c r="AA3" s="81"/>
+      <c r="AB3" s="81"/>
+      <c r="AC3" s="81"/>
+      <c r="AD3" s="81"/>
+      <c r="AE3" s="81"/>
+    </row>
+    <row r="4" spans="1:31" ht="11.25" customHeight="1">
       <c r="A4" s="37"/>
       <c r="B4" s="37"/>
       <c r="C4" s="37"/>
@@ -6649,38 +6675,38 @@
       <c r="AD4" s="37"/>
       <c r="AE4" s="37"/>
     </row>
-    <row r="5" spans="1:31" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:31" ht="32.25" customHeight="1">
       <c r="A5" s="11" t="s">
         <v>0</v>
       </c>
       <c r="B5" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="75" t="s">
+      <c r="C5" s="78" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="75"/>
-      <c r="E5" s="75"/>
-      <c r="F5" s="75" t="s">
+      <c r="D5" s="78"/>
+      <c r="E5" s="78"/>
+      <c r="F5" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="G5" s="75"/>
-      <c r="H5" s="75"/>
-      <c r="I5" s="75" t="s">
+      <c r="G5" s="78"/>
+      <c r="H5" s="78"/>
+      <c r="I5" s="78" t="s">
         <v>7</v>
       </c>
-      <c r="J5" s="75"/>
-      <c r="K5" s="75"/>
-      <c r="L5" s="75" t="s">
+      <c r="J5" s="78"/>
+      <c r="K5" s="78"/>
+      <c r="L5" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="M5" s="75"/>
-      <c r="N5" s="75"/>
-      <c r="O5" s="75" t="s">
+      <c r="M5" s="78"/>
+      <c r="N5" s="78"/>
+      <c r="O5" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="P5" s="75"/>
-      <c r="Q5" s="75"/>
+      <c r="P5" s="78"/>
+      <c r="Q5" s="78"/>
       <c r="R5" s="12" t="s">
         <v>10</v>
       </c>
@@ -6690,14 +6716,14 @@
       <c r="T5" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="U5" s="70" t="s">
+      <c r="U5" s="66" t="s">
         <v>13</v>
       </c>
-      <c r="V5" s="70"/>
-      <c r="W5" s="80" t="s">
+      <c r="V5" s="66"/>
+      <c r="W5" s="82" t="s">
         <v>14</v>
       </c>
-      <c r="X5" s="81"/>
+      <c r="X5" s="83"/>
       <c r="Y5" s="12" t="s">
         <v>15</v>
       </c>
@@ -6713,14 +6739,14 @@
       <c r="AC5" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="AD5" s="76" t="s">
+      <c r="AD5" s="79" t="s">
         <v>20</v>
       </c>
-      <c r="AE5" s="86" t="s">
+      <c r="AE5" s="74" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="6" spans="1:31" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:31" ht="30.75" customHeight="1">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="11" t="s">
@@ -6804,10 +6830,10 @@
       <c r="AC6" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="AD6" s="77"/>
-      <c r="AE6" s="87"/>
-    </row>
-    <row r="7" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD6" s="80"/>
+      <c r="AE6" s="75"/>
+    </row>
+    <row r="7" spans="1:31" ht="12.75" customHeight="1">
       <c r="A7" s="2">
         <v>1</v>
       </c>
@@ -6902,44 +6928,44 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:31" ht="16.5" customHeight="1">
       <c r="A8" s="38" t="s">
         <v>66</v>
       </c>
-      <c r="B8" s="73" t="s">
+      <c r="B8" s="76" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="74"/>
-      <c r="D8" s="74"/>
-      <c r="E8" s="74"/>
-      <c r="F8" s="74"/>
-      <c r="G8" s="74"/>
-      <c r="H8" s="74"/>
-      <c r="I8" s="74"/>
-      <c r="J8" s="74"/>
-      <c r="K8" s="74"/>
-      <c r="L8" s="74"/>
-      <c r="M8" s="74"/>
-      <c r="N8" s="74"/>
-      <c r="O8" s="74"/>
-      <c r="P8" s="74"/>
-      <c r="Q8" s="74"/>
-      <c r="R8" s="74"/>
-      <c r="S8" s="74"/>
-      <c r="T8" s="74"/>
-      <c r="U8" s="74"/>
-      <c r="V8" s="74"/>
-      <c r="W8" s="74"/>
-      <c r="X8" s="74"/>
-      <c r="Y8" s="74"/>
-      <c r="Z8" s="74"/>
-      <c r="AA8" s="74"/>
-      <c r="AB8" s="74"/>
-      <c r="AC8" s="74"/>
-      <c r="AD8" s="74"/>
-      <c r="AE8" s="74"/>
-    </row>
-    <row r="9" spans="1:31" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C8" s="77"/>
+      <c r="D8" s="77"/>
+      <c r="E8" s="77"/>
+      <c r="F8" s="77"/>
+      <c r="G8" s="77"/>
+      <c r="H8" s="77"/>
+      <c r="I8" s="77"/>
+      <c r="J8" s="77"/>
+      <c r="K8" s="77"/>
+      <c r="L8" s="77"/>
+      <c r="M8" s="77"/>
+      <c r="N8" s="77"/>
+      <c r="O8" s="77"/>
+      <c r="P8" s="77"/>
+      <c r="Q8" s="77"/>
+      <c r="R8" s="77"/>
+      <c r="S8" s="77"/>
+      <c r="T8" s="77"/>
+      <c r="U8" s="77"/>
+      <c r="V8" s="77"/>
+      <c r="W8" s="77"/>
+      <c r="X8" s="77"/>
+      <c r="Y8" s="77"/>
+      <c r="Z8" s="77"/>
+      <c r="AA8" s="77"/>
+      <c r="AB8" s="77"/>
+      <c r="AC8" s="77"/>
+      <c r="AD8" s="77"/>
+      <c r="AE8" s="77"/>
+    </row>
+    <row r="9" spans="1:31" ht="50.25" customHeight="1">
       <c r="A9" s="3" t="s">
         <v>22</v>
       </c>
@@ -6973,14 +6999,14 @@
       <c r="AA9" s="17"/>
       <c r="AB9" s="17"/>
       <c r="AC9" s="18"/>
-      <c r="AD9" s="19" t="s">
-        <v>89</v>
-      </c>
-      <c r="AE9" s="20" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="10" spans="1:31" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD9" s="19">
+        <v>0</v>
+      </c>
+      <c r="AE9" s="20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" ht="36" customHeight="1">
       <c r="A10" s="3" t="s">
         <v>29</v>
       </c>
@@ -7014,14 +7040,14 @@
       <c r="AA10" s="17"/>
       <c r="AB10" s="17"/>
       <c r="AC10" s="18"/>
-      <c r="AD10" s="19" t="s">
-        <v>89</v>
-      </c>
-      <c r="AE10" s="20" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="11" spans="1:31" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD10" s="19">
+        <v>0</v>
+      </c>
+      <c r="AE10" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" ht="26.25" customHeight="1">
       <c r="A11" s="3" t="s">
         <v>30</v>
       </c>
@@ -7043,8 +7069,8 @@
       <c r="O11" s="17"/>
       <c r="P11" s="17"/>
       <c r="Q11" s="17"/>
-      <c r="R11" s="17" t="s">
-        <v>89</v>
+      <c r="R11" s="17">
+        <v>4</v>
       </c>
       <c r="S11" s="17"/>
       <c r="T11" s="17"/>
@@ -7057,14 +7083,14 @@
       <c r="AA11" s="17"/>
       <c r="AB11" s="17"/>
       <c r="AC11" s="18"/>
-      <c r="AD11" s="19" t="s">
-        <v>89</v>
-      </c>
-      <c r="AE11" s="20" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="12" spans="1:31" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD11" s="19">
+        <v>4</v>
+      </c>
+      <c r="AE11" s="20">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:31" ht="73.5" customHeight="1">
       <c r="A12" s="3" t="s">
         <v>31</v>
       </c>
@@ -7086,8 +7112,8 @@
       <c r="O12" s="17"/>
       <c r="P12" s="17"/>
       <c r="Q12" s="17"/>
-      <c r="R12" s="17" t="s">
-        <v>89</v>
+      <c r="R12" s="17">
+        <v>4</v>
       </c>
       <c r="S12" s="17"/>
       <c r="T12" s="17"/>
@@ -7100,14 +7126,14 @@
       <c r="AA12" s="17"/>
       <c r="AB12" s="17"/>
       <c r="AC12" s="18"/>
-      <c r="AD12" s="19" t="s">
-        <v>89</v>
-      </c>
-      <c r="AE12" s="20" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="13" spans="1:31" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD12" s="19">
+        <v>4</v>
+      </c>
+      <c r="AE12" s="20">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" ht="60" customHeight="1">
       <c r="A13" s="3" t="s">
         <v>35</v>
       </c>
@@ -7141,14 +7167,14 @@
       <c r="AA13" s="17"/>
       <c r="AB13" s="17"/>
       <c r="AC13" s="18"/>
-      <c r="AD13" s="19" t="s">
-        <v>89</v>
-      </c>
-      <c r="AE13" s="20" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="14" spans="1:31" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD13" s="19">
+        <v>0</v>
+      </c>
+      <c r="AE13" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" ht="70.5" customHeight="1">
       <c r="A14" s="3" t="s">
         <v>37</v>
       </c>
@@ -7170,8 +7196,8 @@
       <c r="O14" s="17"/>
       <c r="P14" s="17"/>
       <c r="Q14" s="17"/>
-      <c r="R14" s="17" t="s">
-        <v>89</v>
+      <c r="R14" s="17">
+        <v>4</v>
       </c>
       <c r="S14" s="17"/>
       <c r="T14" s="17"/>
@@ -7184,14 +7210,14 @@
       <c r="AA14" s="17"/>
       <c r="AB14" s="17"/>
       <c r="AC14" s="18"/>
-      <c r="AD14" s="19" t="s">
-        <v>89</v>
-      </c>
-      <c r="AE14" s="20" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="15" spans="1:31" ht="36" x14ac:dyDescent="0.25">
+      <c r="AD14" s="19">
+        <v>4</v>
+      </c>
+      <c r="AE14" s="20">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" ht="36">
       <c r="A15" s="3" t="s">
         <v>40</v>
       </c>
@@ -7225,14 +7251,14 @@
       <c r="AA15" s="17"/>
       <c r="AB15" s="17"/>
       <c r="AC15" s="18"/>
-      <c r="AD15" s="19" t="s">
-        <v>89</v>
-      </c>
-      <c r="AE15" s="20" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="16" spans="1:31" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD15" s="19">
+        <v>0</v>
+      </c>
+      <c r="AE15" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" ht="38.25" customHeight="1">
       <c r="A16" s="3" t="s">
         <v>41</v>
       </c>
@@ -7266,14 +7292,14 @@
       <c r="AA16" s="17"/>
       <c r="AB16" s="17"/>
       <c r="AC16" s="18"/>
-      <c r="AD16" s="19" t="s">
-        <v>89</v>
-      </c>
-      <c r="AE16" s="20" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="17" spans="1:31" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD16" s="19">
+        <v>0</v>
+      </c>
+      <c r="AE16" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:31" ht="33" customHeight="1">
       <c r="A17" s="3" t="s">
         <v>42</v>
       </c>
@@ -7307,14 +7333,14 @@
       <c r="AA17" s="17"/>
       <c r="AB17" s="17"/>
       <c r="AC17" s="18"/>
-      <c r="AD17" s="19" t="s">
-        <v>89</v>
-      </c>
-      <c r="AE17" s="20" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="18" spans="1:31" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD17" s="19">
+        <v>0</v>
+      </c>
+      <c r="AE17" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:31" ht="69.75" customHeight="1">
       <c r="A18" s="3" t="s">
         <v>32</v>
       </c>
@@ -7348,14 +7374,14 @@
       <c r="AA18" s="17"/>
       <c r="AB18" s="17"/>
       <c r="AC18" s="18"/>
-      <c r="AD18" s="19" t="s">
-        <v>89</v>
-      </c>
-      <c r="AE18" s="20" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="19" spans="1:31" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD18" s="19">
+        <v>0</v>
+      </c>
+      <c r="AE18" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:31" ht="37.5" customHeight="1">
       <c r="A19" s="3" t="s">
         <v>43</v>
       </c>
@@ -7389,14 +7415,14 @@
       <c r="AA19" s="17"/>
       <c r="AB19" s="17"/>
       <c r="AC19" s="18"/>
-      <c r="AD19" s="19" t="s">
-        <v>89</v>
-      </c>
-      <c r="AE19" s="20" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="20" spans="1:31" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD19" s="19">
+        <v>0</v>
+      </c>
+      <c r="AE19" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:31" ht="34.5" customHeight="1">
       <c r="A20" s="3" t="s">
         <v>44</v>
       </c>
@@ -7430,14 +7456,14 @@
       <c r="AA20" s="17"/>
       <c r="AB20" s="17"/>
       <c r="AC20" s="18"/>
-      <c r="AD20" s="19" t="s">
-        <v>89</v>
-      </c>
-      <c r="AE20" s="20" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="21" spans="1:31" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD20" s="19">
+        <v>0</v>
+      </c>
+      <c r="AE20" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:31" ht="45.75" customHeight="1">
       <c r="A21" s="3" t="s">
         <v>33</v>
       </c>
@@ -7471,14 +7497,14 @@
       <c r="AA21" s="17"/>
       <c r="AB21" s="17"/>
       <c r="AC21" s="18"/>
-      <c r="AD21" s="19" t="s">
-        <v>89</v>
-      </c>
-      <c r="AE21" s="20" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="22" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AD21" s="19">
+        <v>0</v>
+      </c>
+      <c r="AE21" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:31">
       <c r="A22" s="3" t="s">
         <v>46</v>
       </c>
@@ -7512,14 +7538,14 @@
       <c r="AA22" s="17"/>
       <c r="AB22" s="17"/>
       <c r="AC22" s="18"/>
-      <c r="AD22" s="19" t="s">
-        <v>89</v>
-      </c>
-      <c r="AE22" s="20" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="23" spans="1:31" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD22" s="19">
+        <v>0</v>
+      </c>
+      <c r="AE22" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:31" ht="25.5" customHeight="1">
       <c r="A23" s="3" t="s">
         <v>47</v>
       </c>
@@ -7553,51 +7579,51 @@
       <c r="AA23" s="17"/>
       <c r="AB23" s="17"/>
       <c r="AC23" s="18"/>
-      <c r="AD23" s="19" t="s">
-        <v>89</v>
-      </c>
-      <c r="AE23" s="20" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="24" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD23" s="19">
+        <v>0</v>
+      </c>
+      <c r="AE23" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:31" ht="16.5" customHeight="1">
       <c r="A24" s="39" t="s">
         <v>67</v>
       </c>
-      <c r="B24" s="68" t="s">
+      <c r="B24" s="72" t="s">
         <v>48</v>
       </c>
-      <c r="C24" s="68"/>
-      <c r="D24" s="68"/>
-      <c r="E24" s="68"/>
-      <c r="F24" s="68"/>
-      <c r="G24" s="68"/>
-      <c r="H24" s="68"/>
-      <c r="I24" s="68"/>
-      <c r="J24" s="68"/>
-      <c r="K24" s="68"/>
-      <c r="L24" s="68"/>
-      <c r="M24" s="68"/>
-      <c r="N24" s="68"/>
-      <c r="O24" s="68"/>
-      <c r="P24" s="68"/>
-      <c r="Q24" s="68"/>
-      <c r="R24" s="68"/>
-      <c r="S24" s="68"/>
-      <c r="T24" s="68"/>
-      <c r="U24" s="68"/>
-      <c r="V24" s="68"/>
-      <c r="W24" s="68"/>
-      <c r="X24" s="68"/>
-      <c r="Y24" s="68"/>
-      <c r="Z24" s="68"/>
-      <c r="AA24" s="68"/>
-      <c r="AB24" s="68"/>
-      <c r="AC24" s="68"/>
-      <c r="AD24" s="68"/>
-      <c r="AE24" s="68"/>
-    </row>
-    <row r="25" spans="1:31" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C24" s="72"/>
+      <c r="D24" s="72"/>
+      <c r="E24" s="72"/>
+      <c r="F24" s="72"/>
+      <c r="G24" s="72"/>
+      <c r="H24" s="72"/>
+      <c r="I24" s="72"/>
+      <c r="J24" s="72"/>
+      <c r="K24" s="72"/>
+      <c r="L24" s="72"/>
+      <c r="M24" s="72"/>
+      <c r="N24" s="72"/>
+      <c r="O24" s="72"/>
+      <c r="P24" s="72"/>
+      <c r="Q24" s="72"/>
+      <c r="R24" s="72"/>
+      <c r="S24" s="72"/>
+      <c r="T24" s="72"/>
+      <c r="U24" s="72"/>
+      <c r="V24" s="72"/>
+      <c r="W24" s="72"/>
+      <c r="X24" s="72"/>
+      <c r="Y24" s="72"/>
+      <c r="Z24" s="72"/>
+      <c r="AA24" s="72"/>
+      <c r="AB24" s="72"/>
+      <c r="AC24" s="72"/>
+      <c r="AD24" s="72"/>
+      <c r="AE24" s="72"/>
+    </row>
+    <row r="25" spans="1:31" ht="39" customHeight="1">
       <c r="A25" s="3" t="s">
         <v>49</v>
       </c>
@@ -7619,8 +7645,8 @@
       <c r="O25" s="21"/>
       <c r="P25" s="21"/>
       <c r="Q25" s="21"/>
-      <c r="R25" s="21" t="s">
-        <v>89</v>
+      <c r="R25" s="21">
+        <v>46.4</v>
       </c>
       <c r="S25" s="21"/>
       <c r="T25" s="21"/>
@@ -7633,14 +7659,14 @@
       <c r="AA25" s="21"/>
       <c r="AB25" s="21"/>
       <c r="AC25" s="22"/>
-      <c r="AD25" s="23" t="s">
-        <v>89</v>
-      </c>
-      <c r="AE25" s="24" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="26" spans="1:31" ht="24" x14ac:dyDescent="0.25">
+      <c r="AD25" s="23">
+        <v>46.4</v>
+      </c>
+      <c r="AE25" s="24">
+        <v>382.8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:31" ht="24">
       <c r="A26" s="3" t="s">
         <v>50</v>
       </c>
@@ -7662,8 +7688,8 @@
       <c r="O26" s="21"/>
       <c r="P26" s="21"/>
       <c r="Q26" s="21"/>
-      <c r="R26" s="21" t="s">
-        <v>89</v>
+      <c r="R26" s="21">
+        <v>46.4</v>
       </c>
       <c r="S26" s="21"/>
       <c r="T26" s="21"/>
@@ -7676,51 +7702,51 @@
       <c r="AA26" s="21"/>
       <c r="AB26" s="21"/>
       <c r="AC26" s="22"/>
-      <c r="AD26" s="23" t="s">
-        <v>89</v>
-      </c>
-      <c r="AE26" s="24" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="27" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD26" s="23">
+        <v>46.4</v>
+      </c>
+      <c r="AE26" s="24">
+        <v>92.8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:31" ht="15.75" customHeight="1">
       <c r="A27" s="39" t="s">
         <v>68</v>
       </c>
-      <c r="B27" s="69" t="s">
+      <c r="B27" s="73" t="s">
         <v>51</v>
       </c>
-      <c r="C27" s="69"/>
-      <c r="D27" s="69"/>
-      <c r="E27" s="69"/>
-      <c r="F27" s="69"/>
-      <c r="G27" s="69"/>
-      <c r="H27" s="69"/>
-      <c r="I27" s="69"/>
-      <c r="J27" s="69"/>
-      <c r="K27" s="69"/>
-      <c r="L27" s="69"/>
-      <c r="M27" s="69"/>
-      <c r="N27" s="69"/>
-      <c r="O27" s="69"/>
-      <c r="P27" s="69"/>
-      <c r="Q27" s="69"/>
-      <c r="R27" s="69"/>
-      <c r="S27" s="69"/>
-      <c r="T27" s="69"/>
-      <c r="U27" s="69"/>
-      <c r="V27" s="69"/>
-      <c r="W27" s="69"/>
-      <c r="X27" s="69"/>
-      <c r="Y27" s="69"/>
-      <c r="Z27" s="69"/>
-      <c r="AA27" s="69"/>
-      <c r="AB27" s="69"/>
-      <c r="AC27" s="69"/>
-      <c r="AD27" s="69"/>
-      <c r="AE27" s="69"/>
-    </row>
-    <row r="28" spans="1:31" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C27" s="73"/>
+      <c r="D27" s="73"/>
+      <c r="E27" s="73"/>
+      <c r="F27" s="73"/>
+      <c r="G27" s="73"/>
+      <c r="H27" s="73"/>
+      <c r="I27" s="73"/>
+      <c r="J27" s="73"/>
+      <c r="K27" s="73"/>
+      <c r="L27" s="73"/>
+      <c r="M27" s="73"/>
+      <c r="N27" s="73"/>
+      <c r="O27" s="73"/>
+      <c r="P27" s="73"/>
+      <c r="Q27" s="73"/>
+      <c r="R27" s="73"/>
+      <c r="S27" s="73"/>
+      <c r="T27" s="73"/>
+      <c r="U27" s="73"/>
+      <c r="V27" s="73"/>
+      <c r="W27" s="73"/>
+      <c r="X27" s="73"/>
+      <c r="Y27" s="73"/>
+      <c r="Z27" s="73"/>
+      <c r="AA27" s="73"/>
+      <c r="AB27" s="73"/>
+      <c r="AC27" s="73"/>
+      <c r="AD27" s="73"/>
+      <c r="AE27" s="73"/>
+    </row>
+    <row r="28" spans="1:31" ht="37.5" customHeight="1">
       <c r="A28" s="9" t="s">
         <v>62</v>
       </c>
@@ -7757,7 +7783,7 @@
       <c r="AD28" s="19"/>
       <c r="AE28" s="20"/>
     </row>
-    <row r="29" spans="1:31" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:31" ht="57" customHeight="1">
       <c r="A29" s="9" t="s">
         <v>63</v>
       </c>
@@ -7794,7 +7820,7 @@
       <c r="AD29" s="19"/>
       <c r="AE29" s="20"/>
     </row>
-    <row r="30" spans="1:31" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:31" ht="37.5" customHeight="1">
       <c r="A30" s="9" t="s">
         <v>52</v>
       </c>
@@ -7831,7 +7857,7 @@
       <c r="AD30" s="19"/>
       <c r="AE30" s="20"/>
     </row>
-    <row r="31" spans="1:31" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:31" ht="24.75" customHeight="1">
       <c r="A31" s="9" t="s">
         <v>59</v>
       </c>
@@ -7868,7 +7894,7 @@
       <c r="AD31" s="19"/>
       <c r="AE31" s="20"/>
     </row>
-    <row r="32" spans="1:31" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:31" ht="37.5" customHeight="1">
       <c r="A32" s="9" t="s">
         <v>60</v>
       </c>
@@ -7905,7 +7931,7 @@
       <c r="AD32" s="19"/>
       <c r="AE32" s="20"/>
     </row>
-    <row r="33" spans="1:31" ht="24" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:31" ht="24">
       <c r="A33" s="9" t="s">
         <v>61</v>
       </c>
@@ -7942,7 +7968,7 @@
       <c r="AD33" s="19"/>
       <c r="AE33" s="20"/>
     </row>
-    <row r="34" spans="1:31" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:31" ht="29.25" customHeight="1">
       <c r="A34" s="42" t="s">
         <v>78</v>
       </c>
@@ -7979,7 +8005,7 @@
       <c r="AD34" s="28"/>
       <c r="AE34" s="28"/>
     </row>
-    <row r="35" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:31">
       <c r="A35" s="41"/>
       <c r="B35" s="41"/>
       <c r="C35" s="41"/>
@@ -8008,7 +8034,7 @@
       <c r="X35" s="41"/>
       <c r="Y35" s="41"/>
     </row>
-    <row r="36" spans="1:31" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:31" ht="24.75" customHeight="1">
       <c r="A36" s="40" t="s">
         <v>77</v>
       </c>
@@ -8037,7 +8063,7 @@
       <c r="X36" s="41"/>
       <c r="Y36" s="41"/>
     </row>
-    <row r="37" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:31">
       <c r="A37" s="30"/>
       <c r="B37" s="30"/>
       <c r="C37" s="30"/>
@@ -8076,18 +8102,18 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:AE37"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="AE33" sqref="AE33"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="4.28515625" customWidth="1"/>
     <col min="2" max="2" width="24.140625" customWidth="1"/>
@@ -8117,59 +8143,59 @@
     <col min="31" max="31" width="8.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="79" t="s">
+    <row r="1" spans="1:31" ht="21" customHeight="1">
+      <c r="A1" s="81" t="s">
         <v>75</v>
       </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="79"/>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="79"/>
-      <c r="R1" s="79"/>
-      <c r="S1" s="79"/>
-      <c r="T1" s="79"/>
-      <c r="U1" s="79"/>
-      <c r="V1" s="79"/>
-      <c r="W1" s="79"/>
-      <c r="X1" s="79"/>
-      <c r="Y1" s="79"/>
-      <c r="Z1" s="79"/>
-      <c r="AA1" s="79"/>
-      <c r="AB1" s="79"/>
-      <c r="AC1" s="79"/>
-      <c r="AD1" s="79"/>
-      <c r="AE1" s="79"/>
-    </row>
-    <row r="2" spans="1:31" ht="43.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="82" t="s">
+      <c r="B1" s="81"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="81"/>
+      <c r="H1" s="81"/>
+      <c r="I1" s="81"/>
+      <c r="J1" s="81"/>
+      <c r="K1" s="81"/>
+      <c r="L1" s="81"/>
+      <c r="M1" s="81"/>
+      <c r="N1" s="81"/>
+      <c r="O1" s="81"/>
+      <c r="P1" s="81"/>
+      <c r="Q1" s="81"/>
+      <c r="R1" s="81"/>
+      <c r="S1" s="81"/>
+      <c r="T1" s="81"/>
+      <c r="U1" s="81"/>
+      <c r="V1" s="81"/>
+      <c r="W1" s="81"/>
+      <c r="X1" s="81"/>
+      <c r="Y1" s="81"/>
+      <c r="Z1" s="81"/>
+      <c r="AA1" s="81"/>
+      <c r="AB1" s="81"/>
+      <c r="AC1" s="81"/>
+      <c r="AD1" s="81"/>
+      <c r="AE1" s="81"/>
+    </row>
+    <row r="2" spans="1:31" ht="43.5" hidden="1" customHeight="1">
+      <c r="A2" s="84" t="s">
         <v>73</v>
       </c>
-      <c r="B2" s="83"/>
-      <c r="C2" s="83"/>
-      <c r="D2" s="83"/>
-      <c r="E2" s="83"/>
-      <c r="F2" s="83"/>
-      <c r="G2" s="83"/>
-      <c r="H2" s="83"/>
-      <c r="I2" s="84" t="s">
+      <c r="B2" s="85"/>
+      <c r="C2" s="85"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="85"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="85"/>
+      <c r="H2" s="85"/>
+      <c r="I2" s="86" t="s">
         <v>74</v>
       </c>
-      <c r="J2" s="85"/>
-      <c r="K2" s="85"/>
-      <c r="L2" s="85"/>
-      <c r="M2" s="85"/>
+      <c r="J2" s="87"/>
+      <c r="K2" s="87"/>
+      <c r="L2" s="87"/>
+      <c r="M2" s="87"/>
       <c r="N2" s="27"/>
       <c r="O2" s="27"/>
       <c r="P2" s="27"/>
@@ -8189,42 +8215,42 @@
       <c r="AD2" s="27"/>
       <c r="AE2" s="27"/>
     </row>
-    <row r="3" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="79" t="s">
-        <v>83</v>
-      </c>
-      <c r="B3" s="79"/>
-      <c r="C3" s="79"/>
-      <c r="D3" s="79"/>
-      <c r="E3" s="79"/>
-      <c r="F3" s="79"/>
-      <c r="G3" s="79"/>
-      <c r="H3" s="79"/>
-      <c r="I3" s="79"/>
-      <c r="J3" s="79"/>
-      <c r="K3" s="79"/>
-      <c r="L3" s="79"/>
-      <c r="M3" s="79"/>
-      <c r="N3" s="79"/>
-      <c r="O3" s="79"/>
-      <c r="P3" s="79"/>
-      <c r="Q3" s="79"/>
-      <c r="R3" s="79"/>
-      <c r="S3" s="79"/>
-      <c r="T3" s="79"/>
-      <c r="U3" s="79"/>
-      <c r="V3" s="79"/>
-      <c r="W3" s="79"/>
-      <c r="X3" s="79"/>
-      <c r="Y3" s="79"/>
-      <c r="Z3" s="79"/>
-      <c r="AA3" s="79"/>
-      <c r="AB3" s="79"/>
-      <c r="AC3" s="79"/>
-      <c r="AD3" s="79"/>
-      <c r="AE3" s="79"/>
-    </row>
-    <row r="4" spans="1:31" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:31" ht="18.75" customHeight="1">
+      <c r="A3" s="81" t="s">
+        <v>84</v>
+      </c>
+      <c r="B3" s="81"/>
+      <c r="C3" s="81"/>
+      <c r="D3" s="81"/>
+      <c r="E3" s="81"/>
+      <c r="F3" s="81"/>
+      <c r="G3" s="81"/>
+      <c r="H3" s="81"/>
+      <c r="I3" s="81"/>
+      <c r="J3" s="81"/>
+      <c r="K3" s="81"/>
+      <c r="L3" s="81"/>
+      <c r="M3" s="81"/>
+      <c r="N3" s="81"/>
+      <c r="O3" s="81"/>
+      <c r="P3" s="81"/>
+      <c r="Q3" s="81"/>
+      <c r="R3" s="81"/>
+      <c r="S3" s="81"/>
+      <c r="T3" s="81"/>
+      <c r="U3" s="81"/>
+      <c r="V3" s="81"/>
+      <c r="W3" s="81"/>
+      <c r="X3" s="81"/>
+      <c r="Y3" s="81"/>
+      <c r="Z3" s="81"/>
+      <c r="AA3" s="81"/>
+      <c r="AB3" s="81"/>
+      <c r="AC3" s="81"/>
+      <c r="AD3" s="81"/>
+      <c r="AE3" s="81"/>
+    </row>
+    <row r="4" spans="1:31" ht="11.25" customHeight="1">
       <c r="A4" s="53"/>
       <c r="B4" s="53"/>
       <c r="C4" s="53"/>
@@ -8257,38 +8283,38 @@
       <c r="AD4" s="53"/>
       <c r="AE4" s="53"/>
     </row>
-    <row r="5" spans="1:31" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:31" ht="32.25" customHeight="1">
       <c r="A5" s="51" t="s">
         <v>0</v>
       </c>
       <c r="B5" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="75" t="s">
+      <c r="C5" s="78" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="75"/>
-      <c r="E5" s="75"/>
-      <c r="F5" s="75" t="s">
+      <c r="D5" s="78"/>
+      <c r="E5" s="78"/>
+      <c r="F5" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="G5" s="75"/>
-      <c r="H5" s="75"/>
-      <c r="I5" s="75" t="s">
+      <c r="G5" s="78"/>
+      <c r="H5" s="78"/>
+      <c r="I5" s="78" t="s">
         <v>7</v>
       </c>
-      <c r="J5" s="75"/>
-      <c r="K5" s="75"/>
-      <c r="L5" s="75" t="s">
+      <c r="J5" s="78"/>
+      <c r="K5" s="78"/>
+      <c r="L5" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="M5" s="75"/>
-      <c r="N5" s="75"/>
-      <c r="O5" s="75" t="s">
+      <c r="M5" s="78"/>
+      <c r="N5" s="78"/>
+      <c r="O5" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="P5" s="75"/>
-      <c r="Q5" s="75"/>
+      <c r="P5" s="78"/>
+      <c r="Q5" s="78"/>
       <c r="R5" s="52" t="s">
         <v>10</v>
       </c>
@@ -8298,14 +8324,14 @@
       <c r="T5" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="U5" s="70" t="s">
+      <c r="U5" s="66" t="s">
         <v>13</v>
       </c>
-      <c r="V5" s="70"/>
-      <c r="W5" s="80" t="s">
+      <c r="V5" s="66"/>
+      <c r="W5" s="82" t="s">
         <v>14</v>
       </c>
-      <c r="X5" s="81"/>
+      <c r="X5" s="83"/>
       <c r="Y5" s="52" t="s">
         <v>15</v>
       </c>
@@ -8321,14 +8347,14 @@
       <c r="AC5" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="AD5" s="76" t="s">
+      <c r="AD5" s="79" t="s">
         <v>20</v>
       </c>
-      <c r="AE5" s="86" t="s">
+      <c r="AE5" s="74" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="6" spans="1:31" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:31" ht="30.75" customHeight="1">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="51" t="s">
@@ -8412,10 +8438,10 @@
       <c r="AC6" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="AD6" s="77"/>
-      <c r="AE6" s="87"/>
-    </row>
-    <row r="7" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD6" s="80"/>
+      <c r="AE6" s="75"/>
+    </row>
+    <row r="7" spans="1:31" ht="12.75" customHeight="1">
       <c r="A7" s="2">
         <v>1</v>
       </c>
@@ -8510,44 +8536,44 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:31" ht="16.5" customHeight="1">
       <c r="A8" s="38" t="s">
         <v>66</v>
       </c>
-      <c r="B8" s="73" t="s">
+      <c r="B8" s="76" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="74"/>
-      <c r="D8" s="74"/>
-      <c r="E8" s="74"/>
-      <c r="F8" s="74"/>
-      <c r="G8" s="74"/>
-      <c r="H8" s="74"/>
-      <c r="I8" s="74"/>
-      <c r="J8" s="74"/>
-      <c r="K8" s="74"/>
-      <c r="L8" s="74"/>
-      <c r="M8" s="74"/>
-      <c r="N8" s="74"/>
-      <c r="O8" s="74"/>
-      <c r="P8" s="74"/>
-      <c r="Q8" s="74"/>
-      <c r="R8" s="74"/>
-      <c r="S8" s="74"/>
-      <c r="T8" s="74"/>
-      <c r="U8" s="74"/>
-      <c r="V8" s="74"/>
-      <c r="W8" s="74"/>
-      <c r="X8" s="74"/>
-      <c r="Y8" s="74"/>
-      <c r="Z8" s="74"/>
-      <c r="AA8" s="74"/>
-      <c r="AB8" s="74"/>
-      <c r="AC8" s="74"/>
-      <c r="AD8" s="74"/>
-      <c r="AE8" s="74"/>
-    </row>
-    <row r="9" spans="1:31" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C8" s="77"/>
+      <c r="D8" s="77"/>
+      <c r="E8" s="77"/>
+      <c r="F8" s="77"/>
+      <c r="G8" s="77"/>
+      <c r="H8" s="77"/>
+      <c r="I8" s="77"/>
+      <c r="J8" s="77"/>
+      <c r="K8" s="77"/>
+      <c r="L8" s="77"/>
+      <c r="M8" s="77"/>
+      <c r="N8" s="77"/>
+      <c r="O8" s="77"/>
+      <c r="P8" s="77"/>
+      <c r="Q8" s="77"/>
+      <c r="R8" s="77"/>
+      <c r="S8" s="77"/>
+      <c r="T8" s="77"/>
+      <c r="U8" s="77"/>
+      <c r="V8" s="77"/>
+      <c r="W8" s="77"/>
+      <c r="X8" s="77"/>
+      <c r="Y8" s="77"/>
+      <c r="Z8" s="77"/>
+      <c r="AA8" s="77"/>
+      <c r="AB8" s="77"/>
+      <c r="AC8" s="77"/>
+      <c r="AD8" s="77"/>
+      <c r="AE8" s="77"/>
+    </row>
+    <row r="9" spans="1:31" ht="50.25" customHeight="1">
       <c r="A9" s="3" t="s">
         <v>22</v>
       </c>
@@ -8566,8 +8592,8 @@
       <c r="L9" s="17"/>
       <c r="M9" s="17"/>
       <c r="N9" s="17"/>
-      <c r="O9" s="17" t="s">
-        <v>89</v>
+      <c r="O9" s="17">
+        <v>1</v>
       </c>
       <c r="P9" s="17"/>
       <c r="Q9" s="17"/>
@@ -8583,14 +8609,14 @@
       <c r="AA9" s="17"/>
       <c r="AB9" s="17"/>
       <c r="AC9" s="18"/>
-      <c r="AD9" s="19" t="s">
-        <v>89</v>
-      </c>
-      <c r="AE9" s="20" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="10" spans="1:31" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD9" s="19">
+        <v>1</v>
+      </c>
+      <c r="AE9" s="20">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" ht="36" customHeight="1">
       <c r="A10" s="3" t="s">
         <v>29</v>
       </c>
@@ -8609,8 +8635,8 @@
       <c r="L10" s="17"/>
       <c r="M10" s="17"/>
       <c r="N10" s="17"/>
-      <c r="O10" s="17" t="s">
-        <v>89</v>
+      <c r="O10" s="17">
+        <v>0</v>
       </c>
       <c r="P10" s="17"/>
       <c r="Q10" s="17"/>
@@ -8626,14 +8652,14 @@
       <c r="AA10" s="17"/>
       <c r="AB10" s="17"/>
       <c r="AC10" s="18"/>
-      <c r="AD10" s="19" t="s">
-        <v>89</v>
-      </c>
-      <c r="AE10" s="20" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="11" spans="1:31" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD10" s="19">
+        <v>0</v>
+      </c>
+      <c r="AE10" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" ht="26.25" customHeight="1">
       <c r="A11" s="3" t="s">
         <v>30</v>
       </c>
@@ -8652,8 +8678,8 @@
       <c r="L11" s="17"/>
       <c r="M11" s="17"/>
       <c r="N11" s="17"/>
-      <c r="O11" s="17" t="s">
-        <v>89</v>
+      <c r="O11" s="17">
+        <v>1</v>
       </c>
       <c r="P11" s="17"/>
       <c r="Q11" s="17"/>
@@ -8669,14 +8695,14 @@
       <c r="AA11" s="17"/>
       <c r="AB11" s="17"/>
       <c r="AC11" s="18"/>
-      <c r="AD11" s="19" t="s">
-        <v>89</v>
-      </c>
-      <c r="AE11" s="20" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="12" spans="1:31" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD11" s="19">
+        <v>1</v>
+      </c>
+      <c r="AE11" s="20">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:31" ht="73.5" customHeight="1">
       <c r="A12" s="3" t="s">
         <v>31</v>
       </c>
@@ -8695,8 +8721,8 @@
       <c r="L12" s="17"/>
       <c r="M12" s="17"/>
       <c r="N12" s="17"/>
-      <c r="O12" s="17" t="s">
-        <v>89</v>
+      <c r="O12" s="17">
+        <v>1</v>
       </c>
       <c r="P12" s="17"/>
       <c r="Q12" s="17"/>
@@ -8712,14 +8738,14 @@
       <c r="AA12" s="17"/>
       <c r="AB12" s="17"/>
       <c r="AC12" s="18"/>
-      <c r="AD12" s="19" t="s">
-        <v>89</v>
-      </c>
-      <c r="AE12" s="20" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="13" spans="1:31" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD12" s="19">
+        <v>1</v>
+      </c>
+      <c r="AE12" s="20">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" ht="60" customHeight="1">
       <c r="A13" s="3" t="s">
         <v>35</v>
       </c>
@@ -8738,8 +8764,8 @@
       <c r="L13" s="17"/>
       <c r="M13" s="17"/>
       <c r="N13" s="17"/>
-      <c r="O13" s="17" t="s">
-        <v>89</v>
+      <c r="O13" s="17">
+        <v>0</v>
       </c>
       <c r="P13" s="17"/>
       <c r="Q13" s="17"/>
@@ -8755,14 +8781,14 @@
       <c r="AA13" s="17"/>
       <c r="AB13" s="17"/>
       <c r="AC13" s="18"/>
-      <c r="AD13" s="19" t="s">
-        <v>89</v>
-      </c>
-      <c r="AE13" s="20" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="14" spans="1:31" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD13" s="19">
+        <v>0</v>
+      </c>
+      <c r="AE13" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" ht="70.5" customHeight="1">
       <c r="A14" s="3" t="s">
         <v>37</v>
       </c>
@@ -8781,8 +8807,8 @@
       <c r="L14" s="17"/>
       <c r="M14" s="17"/>
       <c r="N14" s="17"/>
-      <c r="O14" s="17" t="s">
-        <v>89</v>
+      <c r="O14" s="17">
+        <v>1</v>
       </c>
       <c r="P14" s="17"/>
       <c r="Q14" s="17"/>
@@ -8798,14 +8824,14 @@
       <c r="AA14" s="17"/>
       <c r="AB14" s="17"/>
       <c r="AC14" s="18"/>
-      <c r="AD14" s="19" t="s">
-        <v>89</v>
-      </c>
-      <c r="AE14" s="20" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="15" spans="1:31" ht="36" x14ac:dyDescent="0.25">
+      <c r="AD14" s="19">
+        <v>1</v>
+      </c>
+      <c r="AE14" s="20">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" ht="36">
       <c r="A15" s="3" t="s">
         <v>40</v>
       </c>
@@ -8824,8 +8850,8 @@
       <c r="L15" s="17"/>
       <c r="M15" s="17"/>
       <c r="N15" s="17"/>
-      <c r="O15" s="17" t="s">
-        <v>89</v>
+      <c r="O15" s="17">
+        <v>0</v>
       </c>
       <c r="P15" s="17"/>
       <c r="Q15" s="17"/>
@@ -8841,14 +8867,14 @@
       <c r="AA15" s="17"/>
       <c r="AB15" s="17"/>
       <c r="AC15" s="18"/>
-      <c r="AD15" s="19" t="s">
-        <v>89</v>
-      </c>
-      <c r="AE15" s="20" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="16" spans="1:31" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD15" s="19">
+        <v>0</v>
+      </c>
+      <c r="AE15" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" ht="38.25" customHeight="1">
       <c r="A16" s="3" t="s">
         <v>41</v>
       </c>
@@ -8867,8 +8893,8 @@
       <c r="L16" s="17"/>
       <c r="M16" s="17"/>
       <c r="N16" s="17"/>
-      <c r="O16" s="17" t="s">
-        <v>89</v>
+      <c r="O16" s="17">
+        <v>0</v>
       </c>
       <c r="P16" s="17"/>
       <c r="Q16" s="17"/>
@@ -8884,14 +8910,14 @@
       <c r="AA16" s="17"/>
       <c r="AB16" s="17"/>
       <c r="AC16" s="18"/>
-      <c r="AD16" s="19" t="s">
-        <v>89</v>
-      </c>
-      <c r="AE16" s="20" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="17" spans="1:31" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD16" s="19">
+        <v>0</v>
+      </c>
+      <c r="AE16" s="20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:31" ht="33" customHeight="1">
       <c r="A17" s="3" t="s">
         <v>42</v>
       </c>
@@ -8910,8 +8936,8 @@
       <c r="L17" s="17"/>
       <c r="M17" s="17"/>
       <c r="N17" s="17"/>
-      <c r="O17" s="17" t="s">
-        <v>89</v>
+      <c r="O17" s="17">
+        <v>0</v>
       </c>
       <c r="P17" s="17"/>
       <c r="Q17" s="17"/>
@@ -8927,14 +8953,14 @@
       <c r="AA17" s="17"/>
       <c r="AB17" s="17"/>
       <c r="AC17" s="18"/>
-      <c r="AD17" s="19" t="s">
-        <v>89</v>
-      </c>
-      <c r="AE17" s="20" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="18" spans="1:31" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD17" s="19">
+        <v>0</v>
+      </c>
+      <c r="AE17" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:31" ht="69.75" customHeight="1">
       <c r="A18" s="3" t="s">
         <v>32</v>
       </c>
@@ -8953,8 +8979,8 @@
       <c r="L18" s="17"/>
       <c r="M18" s="17"/>
       <c r="N18" s="17"/>
-      <c r="O18" s="17" t="s">
-        <v>89</v>
+      <c r="O18" s="17">
+        <v>0</v>
       </c>
       <c r="P18" s="17"/>
       <c r="Q18" s="17"/>
@@ -8970,14 +8996,14 @@
       <c r="AA18" s="17"/>
       <c r="AB18" s="17"/>
       <c r="AC18" s="18"/>
-      <c r="AD18" s="19" t="s">
-        <v>89</v>
-      </c>
-      <c r="AE18" s="20" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="19" spans="1:31" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD18" s="19">
+        <v>0</v>
+      </c>
+      <c r="AE18" s="20">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:31" ht="37.5" customHeight="1">
       <c r="A19" s="3" t="s">
         <v>43</v>
       </c>
@@ -8996,8 +9022,8 @@
       <c r="L19" s="17"/>
       <c r="M19" s="17"/>
       <c r="N19" s="17"/>
-      <c r="O19" s="17" t="s">
-        <v>89</v>
+      <c r="O19" s="17">
+        <v>0</v>
       </c>
       <c r="P19" s="17"/>
       <c r="Q19" s="17"/>
@@ -9013,14 +9039,14 @@
       <c r="AA19" s="17"/>
       <c r="AB19" s="17"/>
       <c r="AC19" s="18"/>
-      <c r="AD19" s="19" t="s">
-        <v>89</v>
-      </c>
-      <c r="AE19" s="20" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="20" spans="1:31" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD19" s="19">
+        <v>0</v>
+      </c>
+      <c r="AE19" s="20">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:31" ht="34.5" customHeight="1">
       <c r="A20" s="3" t="s">
         <v>44</v>
       </c>
@@ -9039,8 +9065,8 @@
       <c r="L20" s="17"/>
       <c r="M20" s="17"/>
       <c r="N20" s="17"/>
-      <c r="O20" s="17" t="s">
-        <v>89</v>
+      <c r="O20" s="17">
+        <v>0</v>
       </c>
       <c r="P20" s="17"/>
       <c r="Q20" s="17"/>
@@ -9056,14 +9082,14 @@
       <c r="AA20" s="17"/>
       <c r="AB20" s="17"/>
       <c r="AC20" s="18"/>
-      <c r="AD20" s="19" t="s">
-        <v>89</v>
-      </c>
-      <c r="AE20" s="20" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="21" spans="1:31" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD20" s="19">
+        <v>0</v>
+      </c>
+      <c r="AE20" s="20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:31" ht="45.75" customHeight="1">
       <c r="A21" s="3" t="s">
         <v>33</v>
       </c>
@@ -9082,8 +9108,8 @@
       <c r="L21" s="17"/>
       <c r="M21" s="17"/>
       <c r="N21" s="17"/>
-      <c r="O21" s="17" t="s">
-        <v>89</v>
+      <c r="O21" s="17">
+        <v>0</v>
       </c>
       <c r="P21" s="17"/>
       <c r="Q21" s="17"/>
@@ -9099,14 +9125,14 @@
       <c r="AA21" s="17"/>
       <c r="AB21" s="17"/>
       <c r="AC21" s="18"/>
-      <c r="AD21" s="19" t="s">
-        <v>89</v>
-      </c>
-      <c r="AE21" s="20" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="22" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AD21" s="19">
+        <v>0</v>
+      </c>
+      <c r="AE21" s="20">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:31">
       <c r="A22" s="3" t="s">
         <v>46</v>
       </c>
@@ -9125,8 +9151,8 @@
       <c r="L22" s="17"/>
       <c r="M22" s="17"/>
       <c r="N22" s="17"/>
-      <c r="O22" s="17" t="s">
-        <v>89</v>
+      <c r="O22" s="17">
+        <v>0</v>
       </c>
       <c r="P22" s="17"/>
       <c r="Q22" s="17"/>
@@ -9142,14 +9168,14 @@
       <c r="AA22" s="17"/>
       <c r="AB22" s="17"/>
       <c r="AC22" s="18"/>
-      <c r="AD22" s="19" t="s">
-        <v>89</v>
-      </c>
-      <c r="AE22" s="20" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="23" spans="1:31" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD22" s="19">
+        <v>0</v>
+      </c>
+      <c r="AE22" s="20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:31" ht="25.5" customHeight="1">
       <c r="A23" s="3" t="s">
         <v>47</v>
       </c>
@@ -9168,8 +9194,8 @@
       <c r="L23" s="17"/>
       <c r="M23" s="17"/>
       <c r="N23" s="17"/>
-      <c r="O23" s="17" t="s">
-        <v>89</v>
+      <c r="O23" s="17">
+        <v>0</v>
       </c>
       <c r="P23" s="17"/>
       <c r="Q23" s="17"/>
@@ -9185,51 +9211,51 @@
       <c r="AA23" s="17"/>
       <c r="AB23" s="17"/>
       <c r="AC23" s="18"/>
-      <c r="AD23" s="19" t="s">
-        <v>89</v>
-      </c>
-      <c r="AE23" s="20" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="24" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD23" s="19">
+        <v>0</v>
+      </c>
+      <c r="AE23" s="20">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:31" ht="16.5" customHeight="1">
       <c r="A24" s="39" t="s">
         <v>67</v>
       </c>
-      <c r="B24" s="68" t="s">
+      <c r="B24" s="72" t="s">
         <v>48</v>
       </c>
-      <c r="C24" s="68"/>
-      <c r="D24" s="68"/>
-      <c r="E24" s="68"/>
-      <c r="F24" s="68"/>
-      <c r="G24" s="68"/>
-      <c r="H24" s="68"/>
-      <c r="I24" s="68"/>
-      <c r="J24" s="68"/>
-      <c r="K24" s="68"/>
-      <c r="L24" s="68"/>
-      <c r="M24" s="68"/>
-      <c r="N24" s="68"/>
-      <c r="O24" s="68"/>
-      <c r="P24" s="68"/>
-      <c r="Q24" s="68"/>
-      <c r="R24" s="68"/>
-      <c r="S24" s="68"/>
-      <c r="T24" s="68"/>
-      <c r="U24" s="68"/>
-      <c r="V24" s="68"/>
-      <c r="W24" s="68"/>
-      <c r="X24" s="68"/>
-      <c r="Y24" s="68"/>
-      <c r="Z24" s="68"/>
-      <c r="AA24" s="68"/>
-      <c r="AB24" s="68"/>
-      <c r="AC24" s="68"/>
-      <c r="AD24" s="68"/>
-      <c r="AE24" s="68"/>
-    </row>
-    <row r="25" spans="1:31" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C24" s="72"/>
+      <c r="D24" s="72"/>
+      <c r="E24" s="72"/>
+      <c r="F24" s="72"/>
+      <c r="G24" s="72"/>
+      <c r="H24" s="72"/>
+      <c r="I24" s="72"/>
+      <c r="J24" s="72"/>
+      <c r="K24" s="72"/>
+      <c r="L24" s="72"/>
+      <c r="M24" s="72"/>
+      <c r="N24" s="72"/>
+      <c r="O24" s="72"/>
+      <c r="P24" s="72"/>
+      <c r="Q24" s="72"/>
+      <c r="R24" s="72"/>
+      <c r="S24" s="72"/>
+      <c r="T24" s="72"/>
+      <c r="U24" s="72"/>
+      <c r="V24" s="72"/>
+      <c r="W24" s="72"/>
+      <c r="X24" s="72"/>
+      <c r="Y24" s="72"/>
+      <c r="Z24" s="72"/>
+      <c r="AA24" s="72"/>
+      <c r="AB24" s="72"/>
+      <c r="AC24" s="72"/>
+      <c r="AD24" s="72"/>
+      <c r="AE24" s="72"/>
+    </row>
+    <row r="25" spans="1:31" ht="39" customHeight="1">
       <c r="A25" s="3" t="s">
         <v>49</v>
       </c>
@@ -9248,8 +9274,8 @@
       <c r="L25" s="21"/>
       <c r="M25" s="21"/>
       <c r="N25" s="21"/>
-      <c r="O25" s="21" t="s">
-        <v>89</v>
+      <c r="O25" s="21">
+        <v>290</v>
       </c>
       <c r="P25" s="21"/>
       <c r="Q25" s="21"/>
@@ -9265,14 +9291,14 @@
       <c r="AA25" s="21"/>
       <c r="AB25" s="21"/>
       <c r="AC25" s="22"/>
-      <c r="AD25" s="23" t="s">
-        <v>89</v>
-      </c>
-      <c r="AE25" s="24" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="26" spans="1:31" ht="24" x14ac:dyDescent="0.25">
+      <c r="AD25" s="23">
+        <v>290</v>
+      </c>
+      <c r="AE25" s="24">
+        <v>1006.3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:31" ht="24">
       <c r="A26" s="3" t="s">
         <v>50</v>
       </c>
@@ -9291,8 +9317,8 @@
       <c r="L26" s="21"/>
       <c r="M26" s="21"/>
       <c r="N26" s="21"/>
-      <c r="O26" s="21" t="s">
-        <v>89</v>
+      <c r="O26" s="21">
+        <v>290</v>
       </c>
       <c r="P26" s="21"/>
       <c r="Q26" s="21"/>
@@ -9308,51 +9334,51 @@
       <c r="AA26" s="21"/>
       <c r="AB26" s="21"/>
       <c r="AC26" s="22"/>
-      <c r="AD26" s="23" t="s">
-        <v>89</v>
-      </c>
-      <c r="AE26" s="24" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="27" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD26" s="23">
+        <v>290</v>
+      </c>
+      <c r="AE26" s="24">
+        <v>426.3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:31" ht="15.75" customHeight="1">
       <c r="A27" s="39" t="s">
         <v>68</v>
       </c>
-      <c r="B27" s="69" t="s">
+      <c r="B27" s="73" t="s">
         <v>51</v>
       </c>
-      <c r="C27" s="69"/>
-      <c r="D27" s="69"/>
-      <c r="E27" s="69"/>
-      <c r="F27" s="69"/>
-      <c r="G27" s="69"/>
-      <c r="H27" s="69"/>
-      <c r="I27" s="69"/>
-      <c r="J27" s="69"/>
-      <c r="K27" s="69"/>
-      <c r="L27" s="69"/>
-      <c r="M27" s="69"/>
-      <c r="N27" s="69"/>
-      <c r="O27" s="69"/>
-      <c r="P27" s="69"/>
-      <c r="Q27" s="69"/>
-      <c r="R27" s="69"/>
-      <c r="S27" s="69"/>
-      <c r="T27" s="69"/>
-      <c r="U27" s="69"/>
-      <c r="V27" s="69"/>
-      <c r="W27" s="69"/>
-      <c r="X27" s="69"/>
-      <c r="Y27" s="69"/>
-      <c r="Z27" s="69"/>
-      <c r="AA27" s="69"/>
-      <c r="AB27" s="69"/>
-      <c r="AC27" s="69"/>
-      <c r="AD27" s="69"/>
-      <c r="AE27" s="69"/>
-    </row>
-    <row r="28" spans="1:31" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C27" s="73"/>
+      <c r="D27" s="73"/>
+      <c r="E27" s="73"/>
+      <c r="F27" s="73"/>
+      <c r="G27" s="73"/>
+      <c r="H27" s="73"/>
+      <c r="I27" s="73"/>
+      <c r="J27" s="73"/>
+      <c r="K27" s="73"/>
+      <c r="L27" s="73"/>
+      <c r="M27" s="73"/>
+      <c r="N27" s="73"/>
+      <c r="O27" s="73"/>
+      <c r="P27" s="73"/>
+      <c r="Q27" s="73"/>
+      <c r="R27" s="73"/>
+      <c r="S27" s="73"/>
+      <c r="T27" s="73"/>
+      <c r="U27" s="73"/>
+      <c r="V27" s="73"/>
+      <c r="W27" s="73"/>
+      <c r="X27" s="73"/>
+      <c r="Y27" s="73"/>
+      <c r="Z27" s="73"/>
+      <c r="AA27" s="73"/>
+      <c r="AB27" s="73"/>
+      <c r="AC27" s="73"/>
+      <c r="AD27" s="73"/>
+      <c r="AE27" s="73"/>
+    </row>
+    <row r="28" spans="1:31" ht="37.5" customHeight="1">
       <c r="A28" s="9" t="s">
         <v>62</v>
       </c>
@@ -9389,7 +9415,7 @@
       <c r="AD28" s="19"/>
       <c r="AE28" s="20"/>
     </row>
-    <row r="29" spans="1:31" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:31" ht="57" customHeight="1">
       <c r="A29" s="9" t="s">
         <v>63</v>
       </c>
@@ -9426,7 +9452,7 @@
       <c r="AD29" s="19"/>
       <c r="AE29" s="20"/>
     </row>
-    <row r="30" spans="1:31" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:31" ht="37.5" customHeight="1">
       <c r="A30" s="9" t="s">
         <v>52</v>
       </c>
@@ -9463,7 +9489,7 @@
       <c r="AD30" s="19"/>
       <c r="AE30" s="20"/>
     </row>
-    <row r="31" spans="1:31" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:31" ht="24.75" customHeight="1">
       <c r="A31" s="9" t="s">
         <v>59</v>
       </c>
@@ -9500,7 +9526,7 @@
       <c r="AD31" s="19"/>
       <c r="AE31" s="20"/>
     </row>
-    <row r="32" spans="1:31" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:31" ht="37.5" customHeight="1">
       <c r="A32" s="9" t="s">
         <v>60</v>
       </c>
@@ -9537,7 +9563,7 @@
       <c r="AD32" s="19"/>
       <c r="AE32" s="20"/>
     </row>
-    <row r="33" spans="1:31" ht="24" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:31" ht="24">
       <c r="A33" s="9" t="s">
         <v>61</v>
       </c>
@@ -9574,7 +9600,7 @@
       <c r="AD33" s="19"/>
       <c r="AE33" s="20"/>
     </row>
-    <row r="34" spans="1:31" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:31" ht="29.25" customHeight="1">
       <c r="A34" s="94" t="s">
         <v>82</v>
       </c>
@@ -9611,7 +9637,7 @@
       <c r="AD34" s="28"/>
       <c r="AE34" s="28"/>
     </row>
-    <row r="35" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:31">
       <c r="G35" s="88" t="s">
         <v>72</v>
       </c>
@@ -9624,7 +9650,7 @@
       <c r="P35" s="25"/>
       <c r="Q35" s="25"/>
     </row>
-    <row r="36" spans="1:31" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:31" ht="24.75" customHeight="1">
       <c r="A36" s="90" t="s">
         <v>80</v>
       </c>
@@ -9639,18 +9665,18 @@
       <c r="J36" s="90"/>
       <c r="K36" s="90"/>
     </row>
-    <row r="37" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A37" s="67"/>
-      <c r="B37" s="67"/>
-      <c r="C37" s="67"/>
-      <c r="D37" s="67"/>
-      <c r="E37" s="67"/>
-      <c r="F37" s="67"/>
-      <c r="G37" s="67"/>
-      <c r="H37" s="67"/>
-      <c r="I37" s="67"/>
-      <c r="J37" s="67"/>
-      <c r="K37" s="67"/>
+    <row r="37" spans="1:31">
+      <c r="A37" s="71"/>
+      <c r="B37" s="71"/>
+      <c r="C37" s="71"/>
+      <c r="D37" s="71"/>
+      <c r="E37" s="71"/>
+      <c r="F37" s="71"/>
+      <c r="G37" s="71"/>
+      <c r="H37" s="71"/>
+      <c r="I37" s="71"/>
+      <c r="J37" s="71"/>
+      <c r="K37" s="71"/>
     </row>
   </sheetData>
   <mergeCells count="21">
